--- a/deployment/Omaha_Cal_Info_CP01CNSM_00005.xlsx
+++ b/deployment/Omaha_Cal_Info_CP01CNSM_00005.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="16560" tabRatio="766"/>
+    <workbookView xWindow="44240" yWindow="1140" windowWidth="27100" windowHeight="16560" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -26,7 +21,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -639,9 +634,6 @@
     <t>0008</t>
   </si>
   <si>
-    <t>in meters</t>
-  </si>
-  <si>
     <t>CC_conc_coef</t>
   </si>
   <si>
@@ -769,6 +761,9 @@
   </si>
   <si>
     <t>OL000236</t>
+  </si>
+  <si>
+    <t>in mm</t>
   </si>
 </sst>
 </file>
@@ -2679,7 +2674,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -2738,7 +2733,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2773,7 +2768,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2984,30 +2979,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="59" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="59" customWidth="1"/>
     <col min="2" max="2" width="16" style="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="60" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="60" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="59" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="60" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="60" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="59" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" style="59" customWidth="1"/>
     <col min="13" max="13" width="12" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="59"/>
+    <col min="14" max="14" width="12.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="58" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="58" customFormat="1" ht="28">
       <c r="A1" s="53" t="s">
         <v>154</v>
       </c>
@@ -3045,9 +3040,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="77" t="s">
         <v>150</v>
@@ -3081,11 +3076,11 @@
       <c r="M2" s="74"/>
       <c r="N2" s="74"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" customFormat="1"/>
+    <row r="5" spans="1:14" customFormat="1">
       <c r="H5" s="137"/>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="H6" s="137"/>
     </row>
   </sheetData>
@@ -3103,31 +3098,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V383"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="17" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="37" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="41.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" customWidth="1"/>
     <col min="9" max="9" width="32" style="8" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="4.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="4.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3155,7 @@
       <c r="L1" s="37"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="C2" s="82"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -3168,12 +3163,12 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="83" t="s">
         <v>153</v>
@@ -3182,7 +3177,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="131" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>160</v>
@@ -3192,7 +3187,7 @@
       </c>
       <c r="O3" s="140"/>
     </row>
-    <row r="4" spans="1:17" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="45" customFormat="1">
       <c r="A4" s="43"/>
       <c r="B4" s="82"/>
       <c r="C4" s="83"/>
@@ -3203,12 +3198,12 @@
       <c r="H4" s="42"/>
       <c r="O4" s="140"/>
     </row>
-    <row r="5" spans="1:17" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="68" customFormat="1">
       <c r="A5" s="92" t="s">
         <v>144</v>
       </c>
       <c r="B5" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="83" t="s">
         <v>153</v>
@@ -3217,7 +3212,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="131" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F5" s="84" t="s">
         <v>151</v>
@@ -3229,12 +3224,12 @@
       <c r="O5" s="140"/>
       <c r="Q5" s="45"/>
     </row>
-    <row r="6" spans="1:17" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="68" customFormat="1">
       <c r="A6" s="92" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="83" t="s">
         <v>153</v>
@@ -3243,7 +3238,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="131" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" s="84" t="s">
         <v>152</v>
@@ -3255,7 +3250,7 @@
       <c r="O6" s="140"/>
       <c r="Q6" s="45"/>
     </row>
-    <row r="7" spans="1:17" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="45" customFormat="1">
       <c r="B7" s="7"/>
       <c r="C7" s="82"/>
       <c r="D7" s="37"/>
@@ -3263,12 +3258,12 @@
       <c r="F7" s="7"/>
       <c r="O7" s="140"/>
     </row>
-    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="83" t="s">
         <v>153</v>
@@ -3277,7 +3272,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="103" t="s">
         <v>158</v>
@@ -3293,12 +3288,12 @@
       <c r="O8" s="140"/>
       <c r="Q8" s="45"/>
     </row>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="85" t="s">
         <v>153</v>
@@ -3307,7 +3302,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" s="104" t="s">
         <v>158</v>
@@ -3323,12 +3318,12 @@
       <c r="O9" s="140"/>
       <c r="Q9" s="45"/>
     </row>
-    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="85" t="s">
         <v>153</v>
@@ -3337,7 +3332,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" s="104" t="s">
         <v>158</v>
@@ -3353,12 +3348,12 @@
       <c r="O10" s="140"/>
       <c r="Q10" s="45"/>
     </row>
-    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="85" t="s">
         <v>153</v>
@@ -3367,7 +3362,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" s="104" t="s">
         <v>158</v>
@@ -3383,12 +3378,12 @@
       <c r="O11" s="140"/>
       <c r="Q11" s="45"/>
     </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="85" t="s">
         <v>153</v>
@@ -3397,7 +3392,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="104" t="s">
         <v>158</v>
@@ -3413,12 +3408,12 @@
       <c r="O12" s="140"/>
       <c r="Q12" s="45"/>
     </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="85" t="s">
         <v>153</v>
@@ -3427,7 +3422,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F13" s="104" t="s">
         <v>158</v>
@@ -3443,12 +3438,12 @@
       <c r="O13" s="140"/>
       <c r="Q13" s="45"/>
     </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="85" t="s">
         <v>153</v>
@@ -3457,7 +3452,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" s="104" t="s">
         <v>158</v>
@@ -3475,12 +3470,12 @@
       <c r="O14" s="140"/>
       <c r="Q14" s="45"/>
     </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="85" t="s">
         <v>153</v>
@@ -3489,7 +3484,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="104" t="s">
         <v>158</v>
@@ -3507,12 +3502,12 @@
       <c r="O15" s="140"/>
       <c r="Q15" s="45"/>
     </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16" s="85" t="s">
         <v>153</v>
@@ -3521,7 +3516,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F16" s="104" t="s">
         <v>158</v>
@@ -3539,7 +3534,7 @@
       <c r="O16" s="140"/>
       <c r="Q16" s="45"/>
     </row>
-    <row r="17" spans="1:17" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="45" customFormat="1">
       <c r="A17" s="43"/>
       <c r="B17" s="82"/>
       <c r="C17" s="83"/>
@@ -3550,12 +3545,12 @@
       <c r="H17" s="42"/>
       <c r="O17" s="140"/>
     </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C18" s="83" t="s">
         <v>153</v>
@@ -3564,7 +3559,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F18" s="103" t="s">
         <v>159</v>
@@ -3580,12 +3575,12 @@
       <c r="O18" s="140"/>
       <c r="Q18" s="45"/>
     </row>
-    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="85" t="s">
         <v>153</v>
@@ -3594,7 +3589,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F19" s="104" t="s">
         <v>159</v>
@@ -3610,12 +3605,12 @@
       <c r="O19" s="140"/>
       <c r="Q19" s="45"/>
     </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="85" t="s">
         <v>153</v>
@@ -3624,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F20" s="104" t="s">
         <v>159</v>
@@ -3640,12 +3635,12 @@
       <c r="O20" s="140"/>
       <c r="Q20" s="45"/>
     </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C21" s="85" t="s">
         <v>153</v>
@@ -3654,7 +3649,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F21" s="104" t="s">
         <v>159</v>
@@ -3670,12 +3665,12 @@
       <c r="O21" s="140"/>
       <c r="Q21" s="45"/>
     </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="85" t="s">
         <v>153</v>
@@ -3684,7 +3679,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F22" s="104" t="s">
         <v>159</v>
@@ -3700,12 +3695,12 @@
       <c r="O22" s="140"/>
       <c r="Q22" s="45"/>
     </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C23" s="85" t="s">
         <v>153</v>
@@ -3714,7 +3709,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F23" s="104" t="s">
         <v>159</v>
@@ -3730,12 +3725,12 @@
       <c r="O23" s="140"/>
       <c r="Q23" s="45"/>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" s="85" t="s">
         <v>153</v>
@@ -3744,7 +3739,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F24" s="104" t="s">
         <v>159</v>
@@ -3762,12 +3757,12 @@
       <c r="O24" s="140"/>
       <c r="Q24" s="45"/>
     </row>
-    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="85" t="s">
         <v>153</v>
@@ -3776,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F25" s="104" t="s">
         <v>159</v>
@@ -3794,12 +3789,12 @@
       <c r="O25" s="140"/>
       <c r="Q25" s="45"/>
     </row>
-    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C26" s="85" t="s">
         <v>153</v>
@@ -3808,7 +3803,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F26" s="104" t="s">
         <v>159</v>
@@ -3826,7 +3821,7 @@
       <c r="O26" s="140"/>
       <c r="Q26" s="45"/>
     </row>
-    <row r="27" spans="1:17" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="45" customFormat="1">
       <c r="A27" s="43"/>
       <c r="B27" s="82"/>
       <c r="C27" s="83"/>
@@ -3837,12 +3832,12 @@
       <c r="H27" s="42"/>
       <c r="O27" s="140"/>
     </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="83" t="s">
         <v>153</v>
@@ -3851,7 +3846,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="131" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F28" s="106" t="s">
         <v>161</v>
@@ -3863,7 +3858,7 @@
       <c r="O28" s="140"/>
       <c r="Q28" s="45"/>
     </row>
-    <row r="29" spans="1:17" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="45" customFormat="1">
       <c r="A29" s="43"/>
       <c r="B29" s="82"/>
       <c r="C29" s="83"/>
@@ -3874,12 +3869,12 @@
       <c r="H29" s="42"/>
       <c r="O29" s="140"/>
     </row>
-    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" s="83" t="s">
         <v>153</v>
@@ -3888,7 +3883,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="131" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F30" s="105" t="s">
         <v>162</v>
@@ -3904,12 +3899,12 @@
       <c r="O30" s="140"/>
       <c r="Q30" s="45"/>
     </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" s="85" t="s">
         <v>153</v>
@@ -3918,7 +3913,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="131" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F31" s="105" t="s">
         <v>162</v>
@@ -3934,7 +3929,7 @@
       <c r="O31" s="140"/>
       <c r="Q31" s="45"/>
     </row>
-    <row r="32" spans="1:17" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" s="45" customFormat="1">
       <c r="A32" s="43"/>
       <c r="B32" s="82"/>
       <c r="C32" s="83"/>
@@ -3945,12 +3940,12 @@
       <c r="H32" s="42"/>
       <c r="O32" s="140"/>
     </row>
-    <row r="33" spans="1:17" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="45" customFormat="1">
       <c r="A33" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B33" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C33" s="87" t="s">
         <v>153</v>
@@ -3959,7 +3954,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="131" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F33" s="7">
         <v>144727</v>
@@ -3975,7 +3970,7 @@
       </c>
       <c r="O33" s="140"/>
     </row>
-    <row r="34" spans="1:17" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="45" customFormat="1">
       <c r="A34" s="21" t="s">
         <v>139</v>
       </c>
@@ -3987,7 +3982,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="131" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F34" s="7">
         <v>144727</v>
@@ -4000,7 +3995,7 @@
       </c>
       <c r="O34" s="140"/>
     </row>
-    <row r="35" spans="1:17" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" s="45" customFormat="1">
       <c r="A35" s="43"/>
       <c r="B35" s="82"/>
       <c r="C35" s="83"/>
@@ -4011,12 +4006,12 @@
       <c r="H35" s="42"/>
       <c r="O35" s="140"/>
     </row>
-    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C36" s="83" t="s">
         <v>153</v>
@@ -4025,7 +4020,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F36" s="107" t="s">
         <v>163</v>
@@ -4041,12 +4036,12 @@
       <c r="O36" s="140"/>
       <c r="Q36" s="45"/>
     </row>
-    <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C37" s="85" t="s">
         <v>153</v>
@@ -4055,7 +4050,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F37" s="101" t="s">
         <v>163</v>
@@ -4069,7 +4064,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="45"/>
     </row>
-    <row r="38" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="45" customFormat="1">
       <c r="A38" s="43"/>
       <c r="B38" s="82"/>
       <c r="C38" s="83"/>
@@ -4079,12 +4074,12 @@
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
     </row>
-    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="11" t="s">
         <v>140</v>
       </c>
       <c r="B39" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C39" s="83" t="s">
         <v>153</v>
@@ -4093,10 +4088,10 @@
         <v>5</v>
       </c>
       <c r="E39" s="131" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F39" s="107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>5</v>
@@ -4107,12 +4102,12 @@
       <c r="I39" s="76"/>
       <c r="J39" s="45"/>
     </row>
-    <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="47" t="s">
         <v>140</v>
       </c>
       <c r="B40" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C40" s="85" t="s">
         <v>153</v>
@@ -4121,10 +4116,10 @@
         <v>5</v>
       </c>
       <c r="E40" s="131" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F40" s="107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>6</v>
@@ -4135,19 +4130,19 @@
       <c r="I40" s="1"/>
       <c r="J40" s="45"/>
     </row>
-    <row r="41" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="45" customFormat="1">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C42" s="83" t="s">
         <v>153</v>
@@ -4156,7 +4151,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F42" s="100" t="s">
         <v>157</v>
@@ -4170,12 +4165,12 @@
       <c r="I42" s="1"/>
       <c r="J42" s="45"/>
     </row>
-    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C43" s="85" t="s">
         <v>153</v>
@@ -4184,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F43" s="101" t="s">
         <v>157</v>
@@ -4198,12 +4193,12 @@
       <c r="I43" s="1"/>
       <c r="J43" s="45"/>
     </row>
-    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C44" s="85" t="s">
         <v>153</v>
@@ -4212,7 +4207,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F44" s="101" t="s">
         <v>157</v>
@@ -4226,12 +4221,12 @@
       <c r="I44" s="1"/>
       <c r="J44" s="45"/>
     </row>
-    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C45" s="85" t="s">
         <v>153</v>
@@ -4240,7 +4235,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F45" s="101" t="s">
         <v>157</v>
@@ -4254,12 +4249,12 @@
       <c r="I45" s="1"/>
       <c r="J45" s="45"/>
     </row>
-    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C46" s="85" t="s">
         <v>153</v>
@@ -4268,7 +4263,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F46" s="101" t="s">
         <v>157</v>
@@ -4282,12 +4277,12 @@
       <c r="I46" s="1"/>
       <c r="J46" s="45"/>
     </row>
-    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C47" s="85" t="s">
         <v>153</v>
@@ -4296,7 +4291,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F47" s="101" t="s">
         <v>157</v>
@@ -4310,12 +4305,12 @@
       <c r="I47" s="1"/>
       <c r="J47" s="45"/>
     </row>
-    <row r="48" spans="1:17" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="45" customFormat="1">
       <c r="A48" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C48" s="85" t="s">
         <v>153</v>
@@ -4324,7 +4319,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F48" s="101" t="s">
         <v>157</v>
@@ -4339,18 +4334,18 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="I49" s="1"/>
       <c r="J49" s="45"/>
     </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C50" s="83" t="s">
         <v>153</v>
@@ -4359,7 +4354,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F50" s="100" t="s">
         <v>164</v>
@@ -4373,12 +4368,12 @@
       <c r="I50" s="76"/>
       <c r="J50" s="45"/>
     </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C51" s="85" t="s">
         <v>153</v>
@@ -4387,7 +4382,7 @@
         <v>5</v>
       </c>
       <c r="E51" s="131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F51" s="101" t="s">
         <v>164</v>
@@ -4401,12 +4396,12 @@
       <c r="I51" s="1"/>
       <c r="J51" s="45"/>
     </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C52" s="85" t="s">
         <v>153</v>
@@ -4415,7 +4410,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F52" s="101" t="s">
         <v>164</v>
@@ -4429,12 +4424,12 @@
       <c r="I52" s="1"/>
       <c r="J52" s="45"/>
     </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C53" s="85" t="s">
         <v>153</v>
@@ -4443,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F53" s="101" t="s">
         <v>164</v>
@@ -4457,12 +4452,12 @@
       <c r="I53" s="1"/>
       <c r="J53" s="45"/>
     </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B54" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C54" s="85" t="s">
         <v>153</v>
@@ -4471,7 +4466,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F54" s="101" t="s">
         <v>164</v>
@@ -4485,12 +4480,12 @@
       <c r="I54" s="1"/>
       <c r="J54" s="45"/>
     </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C55" s="85" t="s">
         <v>153</v>
@@ -4499,7 +4494,7 @@
         <v>5</v>
       </c>
       <c r="E55" s="131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F55" s="101" t="s">
         <v>164</v>
@@ -4513,12 +4508,12 @@
       <c r="I55" s="1"/>
       <c r="J55" s="45"/>
     </row>
-    <row r="56" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="45" customFormat="1">
       <c r="A56" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B56" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C56" s="85" t="s">
         <v>153</v>
@@ -4527,7 +4522,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F56" s="101" t="s">
         <v>164</v>
@@ -4542,7 +4537,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" s="14"/>
       <c r="B57" s="82"/>
       <c r="C57" s="83"/>
@@ -4552,12 +4547,12 @@
       <c r="I57" s="1"/>
       <c r="J57" s="45"/>
     </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C58" s="83" t="s">
         <v>153</v>
@@ -4566,7 +4561,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F58" s="100" t="s">
         <v>165</v>
@@ -4580,12 +4575,12 @@
       <c r="I58" s="1"/>
       <c r="J58" s="45"/>
     </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B59" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" s="85" t="s">
         <v>153</v>
@@ -4594,7 +4589,7 @@
         <v>5</v>
       </c>
       <c r="E59" s="131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F59" s="101" t="s">
         <v>165</v>
@@ -4608,12 +4603,12 @@
       <c r="I59" s="1"/>
       <c r="J59" s="45"/>
     </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B60" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C60" s="85" t="s">
         <v>153</v>
@@ -4622,7 +4617,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F60" s="101" t="s">
         <v>165</v>
@@ -4636,12 +4631,12 @@
       <c r="I60" s="1"/>
       <c r="J60" s="45"/>
     </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B61" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C61" s="85" t="s">
         <v>153</v>
@@ -4650,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F61" s="101" t="s">
         <v>165</v>
@@ -4664,12 +4659,12 @@
       <c r="I61" s="1"/>
       <c r="J61" s="45"/>
     </row>
-    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B62" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C62" s="85" t="s">
         <v>153</v>
@@ -4678,7 +4673,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F62" s="101" t="s">
         <v>165</v>
@@ -4692,12 +4687,12 @@
       <c r="I62" s="1"/>
       <c r="J62" s="45"/>
     </row>
-    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B63" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C63" s="85" t="s">
         <v>153</v>
@@ -4706,7 +4701,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F63" s="101" t="s">
         <v>165</v>
@@ -4720,12 +4715,12 @@
       <c r="I63" s="1"/>
       <c r="J63" s="45"/>
     </row>
-    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B64" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C64" s="85" t="s">
         <v>153</v>
@@ -4734,7 +4729,7 @@
         <v>5</v>
       </c>
       <c r="E64" s="131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F64" s="101" t="s">
         <v>165</v>
@@ -4748,12 +4743,12 @@
       <c r="I64" s="1"/>
       <c r="J64" s="45"/>
     </row>
-    <row r="65" spans="1:10" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="19" customFormat="1">
       <c r="A65" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B65" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C65" s="85" t="s">
         <v>153</v>
@@ -4762,7 +4757,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F65" s="101" t="s">
         <v>165</v>
@@ -4775,7 +4770,7 @@
       </c>
       <c r="J65" s="45"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" s="14"/>
       <c r="B66" s="82"/>
       <c r="C66" s="83"/>
@@ -4785,12 +4780,12 @@
       <c r="I66" s="1"/>
       <c r="J66" s="45"/>
     </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B67" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C67" s="83" t="s">
         <v>153</v>
@@ -4799,7 +4794,7 @@
         <v>5</v>
       </c>
       <c r="E67" s="131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F67" s="100" t="s">
         <v>166</v>
@@ -4813,12 +4808,12 @@
       <c r="I67" s="76"/>
       <c r="J67" s="45"/>
     </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B68" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C68" s="85" t="s">
         <v>153</v>
@@ -4827,7 +4822,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F68" s="101" t="s">
         <v>166</v>
@@ -4841,12 +4836,12 @@
       <c r="I68" s="1"/>
       <c r="J68" s="45"/>
     </row>
-    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B69" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C69" s="85" t="s">
         <v>153</v>
@@ -4855,7 +4850,7 @@
         <v>5</v>
       </c>
       <c r="E69" s="131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F69" s="101" t="s">
         <v>166</v>
@@ -4869,12 +4864,12 @@
       <c r="I69" s="1"/>
       <c r="J69" s="45"/>
     </row>
-    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B70" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C70" s="85" t="s">
         <v>153</v>
@@ -4883,7 +4878,7 @@
         <v>5</v>
       </c>
       <c r="E70" s="131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F70" s="101" t="s">
         <v>166</v>
@@ -4897,12 +4892,12 @@
       <c r="I70" s="1"/>
       <c r="J70" s="45"/>
     </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B71" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C71" s="85" t="s">
         <v>153</v>
@@ -4911,7 +4906,7 @@
         <v>5</v>
       </c>
       <c r="E71" s="131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F71" s="101" t="s">
         <v>166</v>
@@ -4925,12 +4920,12 @@
       <c r="I71" s="1"/>
       <c r="J71" s="45"/>
     </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B72" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C72" s="85" t="s">
         <v>153</v>
@@ -4939,7 +4934,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F72" s="101" t="s">
         <v>166</v>
@@ -4953,12 +4948,12 @@
       <c r="I72" s="1"/>
       <c r="J72" s="45"/>
     </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B73" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73" s="85" t="s">
         <v>153</v>
@@ -4967,7 +4962,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F73" s="101" t="s">
         <v>166</v>
@@ -4981,12 +4976,12 @@
       <c r="I73" s="1"/>
       <c r="J73" s="45"/>
     </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B74" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C74" s="85" t="s">
         <v>153</v>
@@ -4995,7 +4990,7 @@
         <v>5</v>
       </c>
       <c r="E74" s="131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F74" s="101" t="s">
         <v>166</v>
@@ -5009,7 +5004,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="45"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" s="14"/>
       <c r="B75" s="82"/>
       <c r="C75" s="83"/>
@@ -5019,12 +5014,12 @@
       <c r="I75" s="1"/>
       <c r="J75" s="45"/>
     </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B76" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C76" s="83" t="s">
         <v>153</v>
@@ -5033,7 +5028,7 @@
         <v>5</v>
       </c>
       <c r="E76" s="131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F76" s="108">
         <v>1213</v>
@@ -5047,12 +5042,12 @@
       <c r="I76" s="1"/>
       <c r="J76" s="45"/>
     </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B77" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C77" s="85" t="s">
         <v>153</v>
@@ -5061,7 +5056,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F77" s="101">
         <v>1213</v>
@@ -5075,12 +5070,12 @@
       <c r="I77" s="1"/>
       <c r="J77" s="45"/>
     </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B78" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C78" s="85" t="s">
         <v>153</v>
@@ -5089,7 +5084,7 @@
         <v>5</v>
       </c>
       <c r="E78" s="131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F78" s="101">
         <v>1213</v>
@@ -5103,12 +5098,12 @@
       <c r="I78" s="1"/>
       <c r="J78" s="45"/>
     </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B79" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C79" s="85" t="s">
         <v>153</v>
@@ -5117,7 +5112,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F79" s="101">
         <v>1213</v>
@@ -5131,12 +5126,12 @@
       <c r="I79" s="1"/>
       <c r="J79" s="45"/>
     </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B80" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C80" s="85" t="s">
         <v>153</v>
@@ -5145,7 +5140,7 @@
         <v>5</v>
       </c>
       <c r="E80" s="131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F80" s="101">
         <v>1213</v>
@@ -5159,12 +5154,12 @@
       <c r="I80" s="1"/>
       <c r="J80" s="45"/>
     </row>
-    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B81" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C81" s="85" t="s">
         <v>153</v>
@@ -5173,7 +5168,7 @@
         <v>5</v>
       </c>
       <c r="E81" s="131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F81" s="101">
         <v>1213</v>
@@ -5187,12 +5182,12 @@
       <c r="I81" s="1"/>
       <c r="J81" s="45"/>
     </row>
-    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B82" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C82" s="85" t="s">
         <v>153</v>
@@ -5201,7 +5196,7 @@
         <v>5</v>
       </c>
       <c r="E82" s="131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F82" s="101">
         <v>1213</v>
@@ -5217,12 +5212,12 @@
       </c>
       <c r="J82" s="45"/>
     </row>
-    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B83" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C83" s="85" t="s">
         <v>153</v>
@@ -5231,7 +5226,7 @@
         <v>5</v>
       </c>
       <c r="E83" s="131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F83" s="101">
         <v>1213</v>
@@ -5247,12 +5242,12 @@
       </c>
       <c r="J83" s="45"/>
     </row>
-    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B84" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C84" s="85" t="s">
         <v>153</v>
@@ -5261,7 +5256,7 @@
         <v>5</v>
       </c>
       <c r="E84" s="131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F84" s="101">
         <v>1213</v>
@@ -5277,12 +5272,12 @@
       </c>
       <c r="J84" s="45"/>
     </row>
-    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B85" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C85" s="85" t="s">
         <v>153</v>
@@ -5291,7 +5286,7 @@
         <v>5</v>
       </c>
       <c r="E85" s="131" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F85" s="101">
         <v>1213</v>
@@ -5307,7 +5302,7 @@
       </c>
       <c r="J85" s="45"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" s="14"/>
       <c r="B86" s="82"/>
       <c r="C86" s="83"/>
@@ -5317,12 +5312,12 @@
       <c r="I86" s="1"/>
       <c r="J86" s="45"/>
     </row>
-    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B87" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C87" s="83" t="s">
         <v>153</v>
@@ -5331,7 +5326,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F87" s="100" t="s">
         <v>167</v>
@@ -5345,12 +5340,12 @@
       <c r="I87" s="1"/>
       <c r="J87" s="45"/>
     </row>
-    <row r="88" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="41" customFormat="1">
       <c r="A88" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B88" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C88" s="85" t="s">
         <v>153</v>
@@ -5359,7 +5354,7 @@
         <v>5</v>
       </c>
       <c r="E88" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F88" s="101" t="s">
         <v>167</v>
@@ -5372,12 +5367,12 @@
       </c>
       <c r="J88" s="45"/>
     </row>
-    <row r="89" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="41" customFormat="1">
       <c r="A89" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B89" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C89" s="85" t="s">
         <v>153</v>
@@ -5386,7 +5381,7 @@
         <v>5</v>
       </c>
       <c r="E89" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F89" s="101" t="s">
         <v>167</v>
@@ -5399,12 +5394,12 @@
       </c>
       <c r="J89" s="45"/>
     </row>
-    <row r="90" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="41" customFormat="1">
       <c r="A90" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B90" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C90" s="85" t="s">
         <v>153</v>
@@ -5413,7 +5408,7 @@
         <v>5</v>
       </c>
       <c r="E90" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F90" s="101" t="s">
         <v>167</v>
@@ -5426,12 +5421,12 @@
       </c>
       <c r="J90" s="45"/>
     </row>
-    <row r="91" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="41" customFormat="1">
       <c r="A91" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B91" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C91" s="85" t="s">
         <v>153</v>
@@ -5440,7 +5435,7 @@
         <v>5</v>
       </c>
       <c r="E91" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F91" s="101" t="s">
         <v>167</v>
@@ -5453,12 +5448,12 @@
       </c>
       <c r="J91" s="45"/>
     </row>
-    <row r="92" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="41" customFormat="1">
       <c r="A92" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B92" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C92" s="85" t="s">
         <v>153</v>
@@ -5467,7 +5462,7 @@
         <v>5</v>
       </c>
       <c r="E92" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F92" s="101" t="s">
         <v>167</v>
@@ -5480,12 +5475,12 @@
       </c>
       <c r="J92" s="45"/>
     </row>
-    <row r="93" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="41" customFormat="1">
       <c r="A93" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B93" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C93" s="85" t="s">
         <v>153</v>
@@ -5494,7 +5489,7 @@
         <v>5</v>
       </c>
       <c r="E93" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F93" s="101" t="s">
         <v>167</v>
@@ -5507,12 +5502,12 @@
       </c>
       <c r="J93" s="45"/>
     </row>
-    <row r="94" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="41" customFormat="1">
       <c r="A94" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B94" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C94" s="85" t="s">
         <v>153</v>
@@ -5521,7 +5516,7 @@
         <v>5</v>
       </c>
       <c r="E94" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F94" s="101" t="s">
         <v>167</v>
@@ -5534,12 +5529,12 @@
       </c>
       <c r="J94" s="45"/>
     </row>
-    <row r="95" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="41" customFormat="1">
       <c r="A95" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B95" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C95" s="85" t="s">
         <v>153</v>
@@ -5548,7 +5543,7 @@
         <v>5</v>
       </c>
       <c r="E95" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F95" s="101" t="s">
         <v>167</v>
@@ -5561,12 +5556,12 @@
       </c>
       <c r="J95" s="45"/>
     </row>
-    <row r="96" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="41" customFormat="1">
       <c r="A96" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B96" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C96" s="85" t="s">
         <v>153</v>
@@ -5575,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="E96" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F96" s="101" t="s">
         <v>167</v>
@@ -5588,12 +5583,12 @@
       </c>
       <c r="J96" s="45"/>
     </row>
-    <row r="97" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="41" customFormat="1">
       <c r="A97" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B97" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C97" s="85" t="s">
         <v>153</v>
@@ -5602,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="E97" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F97" s="101" t="s">
         <v>167</v>
@@ -5615,12 +5610,12 @@
       </c>
       <c r="J97" s="45"/>
     </row>
-    <row r="98" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="41" customFormat="1">
       <c r="A98" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B98" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C98" s="85" t="s">
         <v>153</v>
@@ -5629,7 +5624,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F98" s="101" t="s">
         <v>167</v>
@@ -5642,12 +5637,12 @@
       </c>
       <c r="J98" s="45"/>
     </row>
-    <row r="99" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="41" customFormat="1">
       <c r="A99" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B99" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C99" s="85" t="s">
         <v>153</v>
@@ -5656,7 +5651,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F99" s="101" t="s">
         <v>167</v>
@@ -5669,12 +5664,12 @@
       </c>
       <c r="J99" s="45"/>
     </row>
-    <row r="100" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="41" customFormat="1">
       <c r="A100" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B100" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C100" s="85" t="s">
         <v>153</v>
@@ -5683,7 +5678,7 @@
         <v>5</v>
       </c>
       <c r="E100" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F100" s="101" t="s">
         <v>167</v>
@@ -5696,12 +5691,12 @@
       </c>
       <c r="J100" s="45"/>
     </row>
-    <row r="101" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="41" customFormat="1">
       <c r="A101" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B101" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C101" s="85" t="s">
         <v>153</v>
@@ -5710,7 +5705,7 @@
         <v>5</v>
       </c>
       <c r="E101" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F101" s="101" t="s">
         <v>167</v>
@@ -5723,12 +5718,12 @@
       </c>
       <c r="J101" s="45"/>
     </row>
-    <row r="102" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="41" customFormat="1">
       <c r="A102" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B102" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C102" s="85" t="s">
         <v>153</v>
@@ -5737,7 +5732,7 @@
         <v>5</v>
       </c>
       <c r="E102" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F102" s="101" t="s">
         <v>167</v>
@@ -5750,12 +5745,12 @@
       </c>
       <c r="J102" s="45"/>
     </row>
-    <row r="103" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="41" customFormat="1">
       <c r="A103" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B103" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C103" s="85" t="s">
         <v>153</v>
@@ -5764,7 +5759,7 @@
         <v>5</v>
       </c>
       <c r="E103" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F103" s="101" t="s">
         <v>167</v>
@@ -5777,12 +5772,12 @@
       </c>
       <c r="J103" s="45"/>
     </row>
-    <row r="104" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="41" customFormat="1">
       <c r="A104" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B104" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C104" s="85" t="s">
         <v>153</v>
@@ -5791,7 +5786,7 @@
         <v>5</v>
       </c>
       <c r="E104" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F104" s="101" t="s">
         <v>167</v>
@@ -5804,12 +5799,12 @@
       </c>
       <c r="J104" s="45"/>
     </row>
-    <row r="105" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="41" customFormat="1">
       <c r="A105" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B105" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C105" s="85" t="s">
         <v>153</v>
@@ -5818,7 +5813,7 @@
         <v>5</v>
       </c>
       <c r="E105" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F105" s="101" t="s">
         <v>167</v>
@@ -5831,12 +5826,12 @@
       </c>
       <c r="J105" s="45"/>
     </row>
-    <row r="106" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="41" customFormat="1">
       <c r="A106" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B106" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C106" s="85" t="s">
         <v>153</v>
@@ -5845,7 +5840,7 @@
         <v>5</v>
       </c>
       <c r="E106" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F106" s="101" t="s">
         <v>167</v>
@@ -5858,12 +5853,12 @@
       </c>
       <c r="J106" s="45"/>
     </row>
-    <row r="107" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="41" customFormat="1">
       <c r="A107" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B107" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C107" s="85" t="s">
         <v>153</v>
@@ -5872,7 +5867,7 @@
         <v>5</v>
       </c>
       <c r="E107" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F107" s="101" t="s">
         <v>167</v>
@@ -5885,12 +5880,12 @@
       </c>
       <c r="J107" s="45"/>
     </row>
-    <row r="108" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="41" customFormat="1">
       <c r="A108" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B108" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C108" s="85" t="s">
         <v>153</v>
@@ -5899,7 +5894,7 @@
         <v>5</v>
       </c>
       <c r="E108" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F108" s="101" t="s">
         <v>167</v>
@@ -5912,12 +5907,12 @@
       </c>
       <c r="J108" s="45"/>
     </row>
-    <row r="109" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="41" customFormat="1">
       <c r="A109" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B109" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C109" s="85" t="s">
         <v>153</v>
@@ -5926,7 +5921,7 @@
         <v>5</v>
       </c>
       <c r="E109" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F109" s="101" t="s">
         <v>167</v>
@@ -5939,12 +5934,12 @@
       </c>
       <c r="J109" s="45"/>
     </row>
-    <row r="110" spans="1:10" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="41" customFormat="1">
       <c r="A110" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B110" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C110" s="85" t="s">
         <v>153</v>
@@ -5953,7 +5948,7 @@
         <v>5</v>
       </c>
       <c r="E110" s="131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F110" s="101" t="s">
         <v>167</v>
@@ -5966,7 +5961,7 @@
       </c>
       <c r="J110" s="45"/>
     </row>
-    <row r="111" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" s="45" customFormat="1">
       <c r="A111" s="44"/>
       <c r="B111" s="88"/>
       <c r="C111" s="83"/>
@@ -5976,12 +5971,12 @@
       <c r="G111" s="42"/>
       <c r="H111" s="40"/>
     </row>
-    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B112" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C112" s="83" t="s">
         <v>153</v>
@@ -5990,7 +5985,7 @@
         <v>5</v>
       </c>
       <c r="E112" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F112" s="100" t="s">
         <v>168</v>
@@ -6004,12 +5999,12 @@
       <c r="I112" s="76"/>
       <c r="J112" s="45"/>
     </row>
-    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B113" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C113" s="85" t="s">
         <v>153</v>
@@ -6018,7 +6013,7 @@
         <v>5</v>
       </c>
       <c r="E113" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F113" s="101" t="s">
         <v>168</v>
@@ -6032,12 +6027,12 @@
       <c r="I113" s="1"/>
       <c r="J113" s="45"/>
     </row>
-    <row r="114" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="45" customFormat="1">
       <c r="A114" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B114" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C114" s="85" t="s">
         <v>153</v>
@@ -6046,7 +6041,7 @@
         <v>5</v>
       </c>
       <c r="E114" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F114" s="101" t="s">
         <v>168</v>
@@ -6058,12 +6053,12 @@
         <v>1.254242E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="45" customFormat="1">
       <c r="A115" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B115" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C115" s="85" t="s">
         <v>153</v>
@@ -6072,7 +6067,7 @@
         <v>5</v>
       </c>
       <c r="E115" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F115" s="101" t="s">
         <v>168</v>
@@ -6084,12 +6079,12 @@
         <v>2.7447620000000002E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="45" customFormat="1">
       <c r="A116" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B116" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C116" s="85" t="s">
         <v>153</v>
@@ -6098,7 +6093,7 @@
         <v>5</v>
       </c>
       <c r="E116" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F116" s="101" t="s">
         <v>168</v>
@@ -6110,12 +6105,12 @@
         <v>-1.2989899999999999E-6</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="45" customFormat="1">
       <c r="A117" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B117" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C117" s="85" t="s">
         <v>153</v>
@@ -6124,7 +6119,7 @@
         <v>5</v>
       </c>
       <c r="E117" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F117" s="101" t="s">
         <v>168</v>
@@ -6136,12 +6131,12 @@
         <v>1.9156009999999999E-7</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="45" customFormat="1">
       <c r="A118" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B118" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C118" s="85" t="s">
         <v>153</v>
@@ -6150,7 +6145,7 @@
         <v>5</v>
       </c>
       <c r="E118" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F118" s="101" t="s">
         <v>168</v>
@@ -6162,12 +6157,12 @@
         <v>-67.802319999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="45" customFormat="1">
       <c r="A119" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B119" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C119" s="85" t="s">
         <v>153</v>
@@ -6176,7 +6171,7 @@
         <v>5</v>
       </c>
       <c r="E119" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F119" s="101" t="s">
         <v>168</v>
@@ -6188,12 +6183,12 @@
         <v>51.372079999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="45" customFormat="1">
       <c r="A120" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B120" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C120" s="85" t="s">
         <v>153</v>
@@ -6202,7 +6197,7 @@
         <v>5</v>
       </c>
       <c r="E120" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F120" s="101" t="s">
         <v>168</v>
@@ -6214,12 +6209,12 @@
         <v>-0.41636669999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="45" customFormat="1">
       <c r="A121" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B121" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C121" s="85" t="s">
         <v>153</v>
@@ -6228,7 +6223,7 @@
         <v>5</v>
       </c>
       <c r="E121" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F121" s="101" t="s">
         <v>168</v>
@@ -6240,12 +6235,12 @@
         <v>525408.30000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="45" customFormat="1">
       <c r="A122" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B122" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C122" s="85" t="s">
         <v>153</v>
@@ -6254,7 +6249,7 @@
         <v>5</v>
       </c>
       <c r="E122" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F122" s="101" t="s">
         <v>168</v>
@@ -6266,12 +6261,12 @@
         <v>3.5531679999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="45" customFormat="1">
       <c r="A123" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B123" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C123" s="85" t="s">
         <v>153</v>
@@ -6280,7 +6275,7 @@
         <v>5</v>
       </c>
       <c r="E123" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F123" s="101" t="s">
         <v>168</v>
@@ -6292,12 +6287,12 @@
         <v>-0.13053400000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="45" customFormat="1">
       <c r="A124" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B124" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C124" s="85" t="s">
         <v>153</v>
@@ -6306,7 +6301,7 @@
         <v>5</v>
       </c>
       <c r="E124" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F124" s="101" t="s">
         <v>168</v>
@@ -6318,12 +6313,12 @@
         <v>25.109629999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="45" customFormat="1">
       <c r="A125" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B125" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C125" s="85" t="s">
         <v>153</v>
@@ -6332,7 +6327,7 @@
         <v>5</v>
       </c>
       <c r="E125" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F125" s="101" t="s">
         <v>168</v>
@@ -6344,12 +6339,12 @@
         <v>-6.7500000000000004E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="45" customFormat="1">
       <c r="A126" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B126" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C126" s="85" t="s">
         <v>153</v>
@@ -6358,7 +6353,7 @@
         <v>5</v>
       </c>
       <c r="E126" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F126" s="101" t="s">
         <v>168</v>
@@ -6370,12 +6365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="45" customFormat="1">
       <c r="A127" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B127" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C127" s="85" t="s">
         <v>153</v>
@@ -6384,7 +6379,7 @@
         <v>5</v>
       </c>
       <c r="E127" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F127" s="101" t="s">
         <v>168</v>
@@ -6396,12 +6391,12 @@
         <v>2.729465E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="45" customFormat="1">
       <c r="A128" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B128" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C128" s="85" t="s">
         <v>153</v>
@@ -6410,7 +6405,7 @@
         <v>5</v>
       </c>
       <c r="E128" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F128" s="101" t="s">
         <v>168</v>
@@ -6422,12 +6417,12 @@
         <v>1.546508E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="45" customFormat="1">
       <c r="A129" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B129" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C129" s="85" t="s">
         <v>153</v>
@@ -6436,7 +6431,7 @@
         <v>5</v>
       </c>
       <c r="E129" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F129" s="101" t="s">
         <v>168</v>
@@ -6448,12 +6443,12 @@
         <v>6.35429E-12</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="45" customFormat="1">
       <c r="A130" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B130" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C130" s="85" t="s">
         <v>153</v>
@@ -6462,7 +6457,7 @@
         <v>5</v>
       </c>
       <c r="E130" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F130" s="101" t="s">
         <v>168</v>
@@ -6474,12 +6469,12 @@
         <v>-0.97393030000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="45" customFormat="1">
       <c r="A131" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B131" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C131" s="85" t="s">
         <v>153</v>
@@ -6488,7 +6483,7 @@
         <v>5</v>
       </c>
       <c r="E131" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F131" s="101" t="s">
         <v>168</v>
@@ -6500,12 +6495,12 @@
         <v>0.15096789999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="45" customFormat="1">
       <c r="A132" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B132" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C132" s="85" t="s">
         <v>153</v>
@@ -6514,7 +6509,7 @@
         <v>5</v>
       </c>
       <c r="E132" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F132" s="101" t="s">
         <v>168</v>
@@ -6526,12 +6521,12 @@
         <v>-1.5930489999999999E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="45" customFormat="1">
       <c r="A133" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B133" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C133" s="85" t="s">
         <v>153</v>
@@ -6540,7 +6535,7 @@
         <v>5</v>
       </c>
       <c r="E133" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F133" s="101" t="s">
         <v>168</v>
@@ -6552,12 +6547,12 @@
         <v>3.451911E-5</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="45" customFormat="1">
       <c r="A134" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B134" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C134" s="85" t="s">
         <v>153</v>
@@ -6566,7 +6561,7 @@
         <v>5</v>
       </c>
       <c r="E134" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F134" s="101" t="s">
         <v>168</v>
@@ -6578,12 +6573,12 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="45" customFormat="1">
       <c r="A135" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B135" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C135" s="85" t="s">
         <v>153</v>
@@ -6592,7 +6587,7 @@
         <v>5</v>
       </c>
       <c r="E135" s="131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F135" s="101" t="s">
         <v>168</v>
@@ -6604,7 +6599,7 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10">
       <c r="A136" s="14"/>
       <c r="B136" s="82"/>
       <c r="C136" s="83"/>
@@ -6614,12 +6609,12 @@
       <c r="I136" s="1"/>
       <c r="J136" s="45"/>
     </row>
-    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B137" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C137" s="83" t="s">
         <v>153</v>
@@ -6628,7 +6623,7 @@
         <v>5</v>
       </c>
       <c r="E137" s="131" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F137" s="108">
         <v>378</v>
@@ -6642,12 +6637,12 @@
       <c r="I137" s="1"/>
       <c r="J137" s="45"/>
     </row>
-    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138" s="51" t="s">
         <v>57</v>
       </c>
       <c r="B138" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C138" s="85" t="s">
         <v>153</v>
@@ -6656,7 +6651,7 @@
         <v>5</v>
       </c>
       <c r="E138" s="131" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F138" s="101">
         <v>378</v>
@@ -6670,12 +6665,12 @@
       <c r="I138" s="1"/>
       <c r="J138" s="45"/>
     </row>
-    <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" s="51" t="s">
         <v>57</v>
       </c>
       <c r="B139" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C139" s="85" t="s">
         <v>153</v>
@@ -6684,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="E139" s="131" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F139" s="101">
         <v>378</v>
@@ -6698,12 +6693,12 @@
       <c r="I139" s="1"/>
       <c r="J139" s="45"/>
     </row>
-    <row r="140" spans="1:10" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="45" customFormat="1">
       <c r="A140" s="51" t="s">
         <v>57</v>
       </c>
       <c r="B140" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C140" s="139" t="s">
         <v>153</v>
@@ -6712,19 +6707,19 @@
         <v>5</v>
       </c>
       <c r="E140" s="131" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F140" s="101">
         <v>378</v>
       </c>
       <c r="G140" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="H140" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="H140" s="45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="14"/>
       <c r="B141" s="82"/>
       <c r="C141" s="83"/>
@@ -6734,12 +6729,12 @@
       <c r="I141" s="1"/>
       <c r="J141" s="45"/>
     </row>
-    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B142" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C142" s="83" t="s">
         <v>153</v>
@@ -6748,7 +6743,7 @@
         <v>5</v>
       </c>
       <c r="E142" s="131" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F142" s="100" t="s">
         <v>169</v>
@@ -6762,12 +6757,12 @@
       <c r="I142" s="76"/>
       <c r="J142" s="45"/>
     </row>
-    <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143" s="51" t="s">
         <v>58</v>
       </c>
       <c r="B143" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C143" s="85" t="s">
         <v>153</v>
@@ -6776,7 +6771,7 @@
         <v>5</v>
       </c>
       <c r="E143" s="131" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F143" s="101" t="s">
         <v>169</v>
@@ -6790,12 +6785,12 @@
       <c r="I143" s="1"/>
       <c r="J143" s="45"/>
     </row>
-    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" s="51" t="s">
         <v>58</v>
       </c>
       <c r="B144" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C144" s="85" t="s">
         <v>153</v>
@@ -6804,7 +6799,7 @@
         <v>5</v>
       </c>
       <c r="E144" s="131" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F144" s="101" t="s">
         <v>169</v>
@@ -6818,12 +6813,12 @@
       <c r="I144" s="1"/>
       <c r="J144" s="45"/>
     </row>
-    <row r="145" spans="1:22" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" s="45" customFormat="1">
       <c r="A145" s="51" t="s">
         <v>58</v>
       </c>
       <c r="B145" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C145" s="139" t="s">
         <v>153</v>
@@ -6832,19 +6827,19 @@
         <v>5</v>
       </c>
       <c r="E145" s="131" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F145" s="101" t="s">
         <v>169</v>
       </c>
       <c r="G145" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="H145" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="H145" s="45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:22">
       <c r="I146" s="14"/>
       <c r="J146" s="45"/>
       <c r="K146" s="46"/>
@@ -6852,12 +6847,12 @@
       <c r="M146" s="29"/>
       <c r="N146" s="28"/>
     </row>
-    <row r="147" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22">
       <c r="A147" s="75" t="s">
         <v>148</v>
       </c>
       <c r="B147" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C147" s="83" t="s">
         <v>153</v>
@@ -6866,7 +6861,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F147" s="82">
         <v>261</v>
@@ -6882,12 +6877,12 @@
       </c>
       <c r="J147" s="45"/>
     </row>
-    <row r="148" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22">
       <c r="A148" s="50" t="s">
         <v>148</v>
       </c>
       <c r="B148" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C148" s="85" t="s">
         <v>153</v>
@@ -6896,7 +6891,7 @@
         <v>5</v>
       </c>
       <c r="E148" s="131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F148" s="101">
         <v>261</v>
@@ -6912,12 +6907,12 @@
       </c>
       <c r="J148" s="45"/>
     </row>
-    <row r="149" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22">
       <c r="A149" s="50" t="s">
         <v>148</v>
       </c>
       <c r="B149" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C149" s="85" t="s">
         <v>153</v>
@@ -6926,7 +6921,7 @@
         <v>5</v>
       </c>
       <c r="E149" s="131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F149" s="101">
         <v>261</v>
@@ -6940,12 +6935,12 @@
       <c r="I149" s="1"/>
       <c r="J149" s="45"/>
     </row>
-    <row r="150" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22">
       <c r="A150" s="50" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C150" s="85" t="s">
         <v>153</v>
@@ -6954,7 +6949,7 @@
         <v>5</v>
       </c>
       <c r="E150" s="131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F150" s="101">
         <v>261</v>
@@ -6968,12 +6963,12 @@
       <c r="I150" s="1"/>
       <c r="J150" s="45"/>
     </row>
-    <row r="151" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22">
       <c r="A151" s="50" t="s">
         <v>148</v>
       </c>
       <c r="B151" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C151" s="85" t="s">
         <v>153</v>
@@ -6982,7 +6977,7 @@
         <v>5</v>
       </c>
       <c r="E151" s="131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F151" s="101">
         <v>261</v>
@@ -6996,12 +6991,12 @@
       <c r="I151" s="1"/>
       <c r="J151" s="45"/>
     </row>
-    <row r="152" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22">
       <c r="A152" s="50" t="s">
         <v>148</v>
       </c>
       <c r="B152" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C152" s="85" t="s">
         <v>153</v>
@@ -7010,7 +7005,7 @@
         <v>5</v>
       </c>
       <c r="E152" s="131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F152" s="101">
         <v>261</v>
@@ -7024,12 +7019,12 @@
       <c r="I152" s="1"/>
       <c r="J152" s="45"/>
     </row>
-    <row r="153" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22">
       <c r="A153" s="50" t="s">
         <v>148</v>
       </c>
       <c r="B153" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C153" s="85" t="s">
         <v>153</v>
@@ -7038,7 +7033,7 @@
         <v>5</v>
       </c>
       <c r="E153" s="131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F153" s="101">
         <v>261</v>
@@ -7052,7 +7047,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="45"/>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:22">
       <c r="A154" s="14"/>
       <c r="B154" s="82"/>
       <c r="C154" s="83"/>
@@ -7062,12 +7057,12 @@
       <c r="I154" s="1"/>
       <c r="J154" s="45"/>
     </row>
-    <row r="155" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22">
       <c r="A155" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B155" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C155" s="83" t="s">
         <v>153</v>
@@ -7076,7 +7071,7 @@
         <v>5</v>
       </c>
       <c r="E155" s="131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F155" s="109" t="s">
         <v>170</v>
@@ -7094,12 +7089,12 @@
       <c r="U155" s="41"/>
       <c r="V155" s="41"/>
     </row>
-    <row r="156" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22">
       <c r="A156" s="52" t="s">
         <v>149</v>
       </c>
       <c r="B156" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C156" s="85" t="s">
         <v>153</v>
@@ -7108,7 +7103,7 @@
         <v>5</v>
       </c>
       <c r="E156" s="131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F156" s="101" t="s">
         <v>170</v>
@@ -7126,12 +7121,12 @@
       <c r="U156" s="41"/>
       <c r="V156" s="41"/>
     </row>
-    <row r="157" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:22">
       <c r="A157" s="52" t="s">
         <v>149</v>
       </c>
       <c r="B157" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C157" s="85" t="s">
         <v>153</v>
@@ -7140,7 +7135,7 @@
         <v>5</v>
       </c>
       <c r="E157" s="131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F157" s="101" t="s">
         <v>170</v>
@@ -7154,7 +7149,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="45"/>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:22">
       <c r="A158" s="14"/>
       <c r="B158" s="82"/>
       <c r="C158" s="83"/>
@@ -7164,12 +7159,12 @@
       <c r="I158" s="1"/>
       <c r="J158" s="45"/>
     </row>
-    <row r="159" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22">
       <c r="A159" s="35" t="s">
         <v>69</v>
       </c>
       <c r="B159" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C159" s="83" t="s">
         <v>153</v>
@@ -7178,7 +7173,7 @@
         <v>5</v>
       </c>
       <c r="E159" s="131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F159" s="100" t="s">
         <v>171</v>
@@ -7187,19 +7182,19 @@
         <v>20</v>
       </c>
       <c r="H159" s="97">
-        <v>134</v>
+        <v>134000</v>
       </c>
       <c r="I159" s="76" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="J159" s="45"/>
     </row>
-    <row r="160" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:22">
       <c r="A160" s="52" t="s">
         <v>69</v>
       </c>
       <c r="B160" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C160" s="85" t="s">
         <v>153</v>
@@ -7208,7 +7203,7 @@
         <v>5</v>
       </c>
       <c r="E160" s="131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F160" s="101" t="s">
         <v>171</v>
@@ -7222,12 +7217,12 @@
       <c r="I160" s="1"/>
       <c r="J160" s="45"/>
     </row>
-    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16">
       <c r="A161" s="52" t="s">
         <v>69</v>
       </c>
       <c r="B161" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C161" s="85" t="s">
         <v>153</v>
@@ -7236,7 +7231,7 @@
         <v>5</v>
       </c>
       <c r="E161" s="131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F161" s="101" t="s">
         <v>171</v>
@@ -7250,12 +7245,12 @@
       <c r="I161" s="1"/>
       <c r="J161" s="45"/>
     </row>
-    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16">
       <c r="A162" s="52" t="s">
         <v>69</v>
       </c>
       <c r="B162" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C162" s="85" t="s">
         <v>153</v>
@@ -7264,7 +7259,7 @@
         <v>5</v>
       </c>
       <c r="E162" s="131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F162" s="101" t="s">
         <v>171</v>
@@ -7281,12 +7276,12 @@
       <c r="O162" s="45"/>
       <c r="P162" s="45"/>
     </row>
-    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16">
       <c r="A163" s="52" t="s">
         <v>69</v>
       </c>
       <c r="B163" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C163" s="85" t="s">
         <v>153</v>
@@ -7295,7 +7290,7 @@
         <v>5</v>
       </c>
       <c r="E163" s="131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F163" s="101" t="s">
         <v>171</v>
@@ -7309,12 +7304,12 @@
       <c r="I163" s="1"/>
       <c r="J163" s="45"/>
     </row>
-    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16">
       <c r="A164" s="52" t="s">
         <v>69</v>
       </c>
       <c r="B164" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C164" s="85" t="s">
         <v>153</v>
@@ -7323,7 +7318,7 @@
         <v>5</v>
       </c>
       <c r="E164" s="131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F164" s="101" t="s">
         <v>171</v>
@@ -7337,12 +7332,12 @@
       <c r="I164" s="1"/>
       <c r="J164" s="45"/>
     </row>
-    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16">
       <c r="A165" s="52" t="s">
         <v>69</v>
       </c>
       <c r="B165" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C165" s="85" t="s">
         <v>153</v>
@@ -7351,7 +7346,7 @@
         <v>5</v>
       </c>
       <c r="E165" s="131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F165" s="101" t="s">
         <v>171</v>
@@ -7365,7 +7360,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="45"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16">
       <c r="A166" s="14"/>
       <c r="C166" s="83"/>
       <c r="F166" s="82"/>
@@ -7374,12 +7369,12 @@
       <c r="I166" s="1"/>
       <c r="J166" s="45"/>
     </row>
-    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16">
       <c r="A167" s="35" t="s">
         <v>70</v>
       </c>
       <c r="B167" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C167" s="83" t="s">
         <v>153</v>
@@ -7388,7 +7383,7 @@
         <v>5</v>
       </c>
       <c r="E167" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F167" s="100" t="s">
         <v>172</v>
@@ -7402,12 +7397,12 @@
       <c r="I167" s="76"/>
       <c r="J167" s="45"/>
     </row>
-    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16">
       <c r="A168" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B168" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C168" s="85" t="s">
         <v>153</v>
@@ -7416,7 +7411,7 @@
         <v>5</v>
       </c>
       <c r="E168" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F168" s="101" t="s">
         <v>172</v>
@@ -7430,12 +7425,12 @@
       <c r="I168" s="1"/>
       <c r="J168" s="45"/>
     </row>
-    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16">
       <c r="A169" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B169" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C169" s="85" t="s">
         <v>153</v>
@@ -7444,7 +7439,7 @@
         <v>5</v>
       </c>
       <c r="E169" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F169" s="101" t="s">
         <v>172</v>
@@ -7458,12 +7453,12 @@
       <c r="I169" s="1"/>
       <c r="J169" s="45"/>
     </row>
-    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16">
       <c r="A170" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B170" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C170" s="85" t="s">
         <v>153</v>
@@ -7472,7 +7467,7 @@
         <v>5</v>
       </c>
       <c r="E170" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F170" s="101" t="s">
         <v>172</v>
@@ -7486,12 +7481,12 @@
       <c r="I170" s="1"/>
       <c r="J170" s="45"/>
     </row>
-    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16">
       <c r="A171" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B171" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C171" s="85" t="s">
         <v>153</v>
@@ -7500,7 +7495,7 @@
         <v>5</v>
       </c>
       <c r="E171" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F171" s="101" t="s">
         <v>172</v>
@@ -7514,12 +7509,12 @@
       <c r="I171" s="1"/>
       <c r="J171" s="45"/>
     </row>
-    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16">
       <c r="A172" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B172" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C172" s="85" t="s">
         <v>153</v>
@@ -7528,7 +7523,7 @@
         <v>5</v>
       </c>
       <c r="E172" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F172" s="101" t="s">
         <v>172</v>
@@ -7544,12 +7539,12 @@
       </c>
       <c r="J172" s="45"/>
     </row>
-    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16">
       <c r="A173" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B173" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C173" s="85" t="s">
         <v>153</v>
@@ -7558,7 +7553,7 @@
         <v>5</v>
       </c>
       <c r="E173" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F173" s="101" t="s">
         <v>172</v>
@@ -7572,12 +7567,12 @@
       <c r="I173" s="1"/>
       <c r="J173" s="45"/>
     </row>
-    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16">
       <c r="A174" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B174" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C174" s="85" t="s">
         <v>153</v>
@@ -7586,7 +7581,7 @@
         <v>5</v>
       </c>
       <c r="E174" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F174" s="101" t="s">
         <v>172</v>
@@ -7602,12 +7597,12 @@
       </c>
       <c r="J174" s="45"/>
     </row>
-    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16">
       <c r="A175" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B175" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C175" s="85" t="s">
         <v>153</v>
@@ -7616,7 +7611,7 @@
         <v>5</v>
       </c>
       <c r="E175" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F175" s="101" t="s">
         <v>172</v>
@@ -7630,12 +7625,12 @@
       <c r="I175" s="1"/>
       <c r="J175" s="45"/>
     </row>
-    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16">
       <c r="A176" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B176" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C176" s="85" t="s">
         <v>153</v>
@@ -7644,7 +7639,7 @@
         <v>5</v>
       </c>
       <c r="E176" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F176" s="101" t="s">
         <v>172</v>
@@ -7658,12 +7653,12 @@
       <c r="I176" s="1"/>
       <c r="J176" s="45"/>
     </row>
-    <row r="177" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14">
       <c r="A177" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B177" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C177" s="85" t="s">
         <v>153</v>
@@ -7672,7 +7667,7 @@
         <v>5</v>
       </c>
       <c r="E177" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F177" s="101" t="s">
         <v>172</v>
@@ -7686,12 +7681,12 @@
       <c r="I177" s="1"/>
       <c r="J177" s="45"/>
     </row>
-    <row r="178" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14">
       <c r="A178" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B178" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C178" s="85" t="s">
         <v>153</v>
@@ -7700,7 +7695,7 @@
         <v>5</v>
       </c>
       <c r="E178" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F178" s="101" t="s">
         <v>172</v>
@@ -7714,12 +7709,12 @@
       <c r="I178" s="1"/>
       <c r="J178" s="45"/>
     </row>
-    <row r="179" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14">
       <c r="A179" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B179" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C179" s="85" t="s">
         <v>153</v>
@@ -7728,7 +7723,7 @@
         <v>5</v>
       </c>
       <c r="E179" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F179" s="101" t="s">
         <v>172</v>
@@ -7742,12 +7737,12 @@
       <c r="I179" s="1"/>
       <c r="J179" s="45"/>
     </row>
-    <row r="180" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14">
       <c r="A180" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B180" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C180" s="85" t="s">
         <v>153</v>
@@ -7756,7 +7751,7 @@
         <v>5</v>
       </c>
       <c r="E180" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F180" s="101" t="s">
         <v>172</v>
@@ -7770,12 +7765,12 @@
       <c r="I180" s="1"/>
       <c r="J180" s="45"/>
     </row>
-    <row r="181" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14">
       <c r="A181" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B181" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C181" s="85" t="s">
         <v>153</v>
@@ -7784,7 +7779,7 @@
         <v>5</v>
       </c>
       <c r="E181" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F181" s="101" t="s">
         <v>172</v>
@@ -7798,12 +7793,12 @@
       <c r="I181" s="1"/>
       <c r="J181" s="45"/>
     </row>
-    <row r="182" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14">
       <c r="A182" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B182" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C182" s="85" t="s">
         <v>153</v>
@@ -7812,7 +7807,7 @@
         <v>5</v>
       </c>
       <c r="E182" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F182" s="101" t="s">
         <v>172</v>
@@ -7826,12 +7821,12 @@
       <c r="I182" s="1"/>
       <c r="J182" s="45"/>
     </row>
-    <row r="183" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" s="45" customFormat="1">
       <c r="A183" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B183" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C183" s="85" t="s">
         <v>153</v>
@@ -7840,7 +7835,7 @@
         <v>5</v>
       </c>
       <c r="E183" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F183" s="101" t="s">
         <v>172</v>
@@ -7852,12 +7847,12 @@
         <v>2796.2</v>
       </c>
     </row>
-    <row r="184" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" s="45" customFormat="1">
       <c r="A184" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B184" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C184" s="85" t="s">
         <v>153</v>
@@ -7866,7 +7861,7 @@
         <v>5</v>
       </c>
       <c r="E184" s="131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F184" s="101" t="s">
         <v>172</v>
@@ -7878,7 +7873,7 @@
         <v>41943</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14">
       <c r="I185" s="14"/>
       <c r="J185" s="45"/>
       <c r="K185" s="46"/>
@@ -7886,12 +7881,12 @@
       <c r="M185" s="14"/>
       <c r="N185" s="14"/>
     </row>
-    <row r="186" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14">
       <c r="A186" s="35" t="s">
         <v>87</v>
       </c>
       <c r="B186" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C186" s="83" t="s">
         <v>153</v>
@@ -7900,7 +7895,7 @@
         <v>5</v>
       </c>
       <c r="E186" s="131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F186" s="100" t="s">
         <v>173</v>
@@ -7914,12 +7909,12 @@
       <c r="I186" s="76"/>
       <c r="J186" s="45"/>
     </row>
-    <row r="187" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14">
       <c r="A187" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B187" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C187" s="85" t="s">
         <v>153</v>
@@ -7928,7 +7923,7 @@
         <v>5</v>
       </c>
       <c r="E187" s="131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F187" s="101" t="s">
         <v>173</v>
@@ -7942,12 +7937,12 @@
       <c r="I187" s="1"/>
       <c r="J187" s="45"/>
     </row>
-    <row r="188" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14">
       <c r="A188" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B188" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C188" s="85" t="s">
         <v>153</v>
@@ -7956,7 +7951,7 @@
         <v>5</v>
       </c>
       <c r="E188" s="131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F188" s="101" t="s">
         <v>173</v>
@@ -7970,12 +7965,12 @@
       <c r="I188" s="1"/>
       <c r="J188" s="45"/>
     </row>
-    <row r="189" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14">
       <c r="A189" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B189" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C189" s="85" t="s">
         <v>153</v>
@@ -7984,7 +7979,7 @@
         <v>5</v>
       </c>
       <c r="E189" s="131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F189" s="101" t="s">
         <v>173</v>
@@ -7998,12 +7993,12 @@
       <c r="I189" s="1"/>
       <c r="J189" s="45"/>
     </row>
-    <row r="190" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14">
       <c r="A190" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B190" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C190" s="85" t="s">
         <v>153</v>
@@ -8012,7 +8007,7 @@
         <v>5</v>
       </c>
       <c r="E190" s="131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F190" s="101" t="s">
         <v>173</v>
@@ -8026,12 +8021,12 @@
       <c r="I190" s="1"/>
       <c r="J190" s="45"/>
     </row>
-    <row r="191" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14">
       <c r="A191" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B191" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C191" s="85" t="s">
         <v>153</v>
@@ -8040,7 +8035,7 @@
         <v>5</v>
       </c>
       <c r="E191" s="131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F191" s="101" t="s">
         <v>173</v>
@@ -8054,12 +8049,12 @@
       <c r="I191" s="1"/>
       <c r="J191" s="45"/>
     </row>
-    <row r="192" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14">
       <c r="A192" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B192" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C192" s="85" t="s">
         <v>153</v>
@@ -8068,7 +8063,7 @@
         <v>5</v>
       </c>
       <c r="E192" s="131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F192" s="101" t="s">
         <v>173</v>
@@ -8082,12 +8077,12 @@
       <c r="I192" s="1"/>
       <c r="J192" s="45"/>
     </row>
-    <row r="193" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18">
       <c r="A193" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B193" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C193" s="85" t="s">
         <v>153</v>
@@ -8096,7 +8091,7 @@
         <v>5</v>
       </c>
       <c r="E193" s="131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F193" s="101" t="s">
         <v>173</v>
@@ -8110,18 +8105,18 @@
       <c r="I193" s="1"/>
       <c r="J193" s="45"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18">
       <c r="B194" s="89"/>
       <c r="D194" s="7"/>
       <c r="I194" s="1"/>
       <c r="J194" s="45"/>
     </row>
-    <row r="195" spans="1:18" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" s="45" customFormat="1">
       <c r="A195" s="72" t="s">
         <v>143</v>
       </c>
       <c r="B195" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C195" s="93" t="s">
         <v>153</v>
@@ -8130,7 +8125,7 @@
         <v>5</v>
       </c>
       <c r="E195" s="131" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F195" s="100" t="s">
         <v>174</v>
@@ -8139,7 +8134,7 @@
       <c r="H195" s="70"/>
       <c r="I195" s="76"/>
     </row>
-    <row r="196" spans="1:18" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" s="45" customFormat="1">
       <c r="A196" s="73"/>
       <c r="B196" s="90"/>
       <c r="C196" s="91"/>
@@ -8150,7 +8145,7 @@
       <c r="H196" s="68"/>
       <c r="I196" s="68"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18">
       <c r="I197" s="71" t="s">
         <v>142</v>
       </c>
@@ -8164,7 +8159,7 @@
       <c r="Q197" s="67"/>
       <c r="R197" s="45"/>
     </row>
-    <row r="198" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" s="45" customFormat="1">
       <c r="A198" s="21"/>
       <c r="B198" s="89"/>
       <c r="C198" s="83"/>
@@ -8174,12 +8169,12 @@
       <c r="H198" s="46"/>
       <c r="I198" s="67"/>
     </row>
-    <row r="199" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18">
       <c r="A199" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B199" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C199" s="83" t="s">
         <v>153</v>
@@ -8188,22 +8183,22 @@
         <v>5</v>
       </c>
       <c r="E199" s="131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F199" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G199" s="62"/>
       <c r="H199" s="36"/>
       <c r="I199" s="1"/>
       <c r="J199" s="45"/>
     </row>
-    <row r="200" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18">
       <c r="A200" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B200" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C200" s="83" t="s">
         <v>153</v>
@@ -8212,10 +8207,10 @@
         <v>5</v>
       </c>
       <c r="E200" s="131" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F200" s="84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I200" s="134"/>
       <c r="J200" s="45"/>
@@ -8226,12 +8221,12 @@
       <c r="O200" s="135"/>
       <c r="P200" s="135"/>
     </row>
-    <row r="201" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18">
       <c r="A201" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B201" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C201" s="83" t="s">
         <v>153</v>
@@ -8240,10 +8235,10 @@
         <v>5</v>
       </c>
       <c r="E201" s="131" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F201" s="84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I201" s="134"/>
       <c r="J201" s="45"/>
@@ -8254,7 +8249,7 @@
       <c r="O201" s="135"/>
       <c r="P201" s="135"/>
     </row>
-    <row r="202" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18">
       <c r="A202" s="14"/>
       <c r="B202" s="82"/>
       <c r="C202" s="83"/>
@@ -8265,12 +8260,12 @@
       <c r="I202" s="1"/>
       <c r="J202" s="45"/>
     </row>
-    <row r="203" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18">
       <c r="A203" s="15" t="s">
         <v>124</v>
       </c>
       <c r="B203" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C203" s="83" t="s">
         <v>153</v>
@@ -8279,22 +8274,22 @@
         <v>5</v>
       </c>
       <c r="E203" s="131" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F203" s="84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G203" s="45"/>
       <c r="H203" s="45"/>
       <c r="I203" s="68"/>
       <c r="J203" s="45"/>
     </row>
-    <row r="204" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18">
       <c r="A204" s="14" t="s">
         <v>119</v>
       </c>
       <c r="B204" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C204" s="83" t="s">
         <v>153</v>
@@ -8303,22 +8298,22 @@
         <v>5</v>
       </c>
       <c r="E204" s="131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F204" s="84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G204" s="45"/>
       <c r="H204" s="45"/>
       <c r="I204" s="68"/>
       <c r="J204" s="45"/>
     </row>
-    <row r="205" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18">
       <c r="A205" s="14" t="s">
         <v>120</v>
       </c>
       <c r="B205" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C205" s="83" t="s">
         <v>153</v>
@@ -8327,7 +8322,7 @@
         <v>5</v>
       </c>
       <c r="E205" s="131" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F205" s="132" t="s">
         <v>197</v>
@@ -8337,12 +8332,12 @@
       <c r="I205" s="68"/>
       <c r="J205" s="45"/>
     </row>
-    <row r="206" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18">
       <c r="A206" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B206" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C206" s="83" t="s">
         <v>153</v>
@@ -8351,7 +8346,7 @@
         <v>5</v>
       </c>
       <c r="E206" s="131" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F206" s="132" t="s">
         <v>198</v>
@@ -8361,12 +8356,12 @@
       <c r="I206" s="68"/>
       <c r="J206" s="45"/>
     </row>
-    <row r="207" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18">
       <c r="A207" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B207" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C207" s="83" t="s">
         <v>153</v>
@@ -8375,7 +8370,7 @@
         <v>5</v>
       </c>
       <c r="E207" s="131" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F207" s="132" t="s">
         <v>199</v>
@@ -8385,12 +8380,12 @@
       <c r="I207" s="76"/>
       <c r="J207" s="45"/>
     </row>
-    <row r="208" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18">
       <c r="A208" s="14" t="s">
         <v>123</v>
       </c>
       <c r="B208" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C208" s="83" t="s">
         <v>153</v>
@@ -8399,7 +8394,7 @@
         <v>5</v>
       </c>
       <c r="E208" s="131" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F208" s="132" t="s">
         <v>198</v>
@@ -8409,529 +8404,529 @@
       <c r="I208" s="76"/>
       <c r="J208" s="45"/>
     </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:9">
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:9">
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:9">
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:9">
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:9">
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:9">
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:9">
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:9">
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:9">
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:9">
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:9">
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:9">
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:9">
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:9">
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:9">
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:9">
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:9">
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:9">
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:9">
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:9">
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:9">
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:9">
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:9">
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:9">
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:9">
       <c r="I233" s="1"/>
     </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:9">
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:9">
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:9">
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:9">
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:9">
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:9">
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:9">
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:9">
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:9">
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:9">
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:9">
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:9">
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="9:9">
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:9">
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:9">
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:9">
       <c r="I249" s="1"/>
     </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="9:9">
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="9:9">
       <c r="I251" s="1"/>
     </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="9:9">
       <c r="I252" s="1"/>
     </row>
-    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="9:9">
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:9">
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:9">
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="9:9">
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="9:9">
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="9:9">
       <c r="I258" s="1"/>
     </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="9:9">
       <c r="I259" s="1"/>
     </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="9:9">
       <c r="I260" s="1"/>
     </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="9:9">
       <c r="I261" s="1"/>
     </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="9:9">
       <c r="I262" s="1"/>
     </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="9:9">
       <c r="I263" s="1"/>
     </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="9:9">
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="9:9">
       <c r="I265" s="1"/>
     </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="9:9">
       <c r="I266" s="1"/>
     </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="9:9">
       <c r="I267" s="1"/>
     </row>
-    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="9:9">
       <c r="I268" s="1"/>
     </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="9:9">
       <c r="I269" s="1"/>
     </row>
-    <row r="270" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="9:9">
       <c r="I270" s="1"/>
     </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="9:9">
       <c r="I271" s="1"/>
     </row>
-    <row r="272" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="9:9">
       <c r="I272" s="1"/>
     </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="9:9">
       <c r="I273" s="1"/>
     </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="9:9">
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="9:9">
       <c r="I275" s="1"/>
     </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="9:9">
       <c r="I276" s="1"/>
     </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:9">
       <c r="I277" s="1"/>
     </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:9">
       <c r="I278" s="1"/>
     </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:9">
       <c r="I279" s="1"/>
     </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:9">
       <c r="I280" s="1"/>
     </row>
-    <row r="281" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:9">
       <c r="I281" s="1"/>
     </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="9:9">
       <c r="I282" s="1"/>
     </row>
-    <row r="283" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="9:9">
       <c r="I283" s="1"/>
     </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="9:9">
       <c r="I284" s="1"/>
     </row>
-    <row r="285" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="9:9">
       <c r="I285" s="1"/>
     </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="9:9">
       <c r="I286" s="1"/>
     </row>
-    <row r="287" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="9:9">
       <c r="I287" s="1"/>
     </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="9:9">
       <c r="I288" s="1"/>
     </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="9:9">
       <c r="I289" s="1"/>
     </row>
-    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="9:9">
       <c r="I290" s="1"/>
     </row>
-    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:9">
       <c r="I291" s="1"/>
     </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="9:9">
       <c r="I292" s="1"/>
     </row>
-    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="9:9">
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="9:9">
       <c r="I294" s="1"/>
     </row>
-    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="9:9">
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="9:9">
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="9:9">
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="9:9">
       <c r="I298" s="1"/>
     </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="9:9">
       <c r="I299" s="1"/>
     </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="9:9">
       <c r="I300" s="1"/>
     </row>
-    <row r="301" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="9:9">
       <c r="I301" s="1"/>
     </row>
-    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="9:9">
       <c r="I302" s="1"/>
     </row>
-    <row r="303" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="9:9">
       <c r="I303" s="1"/>
     </row>
-    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="9:9">
       <c r="I304" s="1"/>
     </row>
-    <row r="305" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="9:9">
       <c r="I305" s="1"/>
     </row>
-    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="9:9">
       <c r="I306" s="1"/>
     </row>
-    <row r="307" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="9:9">
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="9:9">
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="9:9">
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="9:9">
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="9:9">
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="9:9">
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="9:9">
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="9:9">
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="9:9">
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="9:9">
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="9:9">
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="9:9">
       <c r="I318" s="1"/>
     </row>
-    <row r="319" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="9:9">
       <c r="I319" s="1"/>
     </row>
-    <row r="320" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="9:9">
       <c r="I320" s="1"/>
     </row>
-    <row r="321" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="9:9">
       <c r="I321" s="1"/>
     </row>
-    <row r="322" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="9:9">
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="9:9">
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="9:9">
       <c r="I324" s="1"/>
     </row>
-    <row r="325" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="9:9">
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="9:9">
       <c r="I326" s="1"/>
     </row>
-    <row r="327" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="9:9">
       <c r="I327" s="1"/>
     </row>
-    <row r="328" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="9:9">
       <c r="I328" s="1"/>
     </row>
-    <row r="329" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="9:9">
       <c r="I329" s="1"/>
     </row>
-    <row r="330" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="9:9">
       <c r="I330" s="1"/>
     </row>
-    <row r="331" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="9:9">
       <c r="I331" s="1"/>
     </row>
-    <row r="332" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="9:9">
       <c r="I332" s="1"/>
     </row>
-    <row r="333" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="9:9">
       <c r="I333" s="1"/>
     </row>
-    <row r="334" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="9:9">
       <c r="I334" s="1"/>
     </row>
-    <row r="335" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="9:9">
       <c r="I335" s="1"/>
     </row>
-    <row r="336" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="9:9">
       <c r="I336" s="1"/>
     </row>
-    <row r="337" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="9:9">
       <c r="I337" s="1"/>
     </row>
-    <row r="338" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="9:9">
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="9:9">
       <c r="I339" s="1"/>
     </row>
-    <row r="340" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="9:9">
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="9:9">
       <c r="I341" s="1"/>
     </row>
-    <row r="342" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="9:9">
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="9:9">
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="9:9">
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="9:9">
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="9:9">
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="9:9">
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="9:9">
       <c r="I348" s="1"/>
     </row>
-    <row r="349" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="9:9">
       <c r="I349" s="1"/>
     </row>
-    <row r="350" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="9:9">
       <c r="I350" s="1"/>
     </row>
-    <row r="351" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="9:9">
       <c r="I351" s="1"/>
     </row>
-    <row r="352" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="9:9">
       <c r="I352" s="1"/>
     </row>
-    <row r="353" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="9:9">
       <c r="I353" s="1"/>
     </row>
-    <row r="354" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="9:9">
       <c r="I354" s="1"/>
     </row>
-    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="9:9">
       <c r="I355" s="1"/>
     </row>
-    <row r="356" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="9:9">
       <c r="I356" s="1"/>
     </row>
-    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="9:9">
       <c r="I357" s="1"/>
     </row>
-    <row r="358" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="9:9">
       <c r="I358" s="1"/>
     </row>
-    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="9:9">
       <c r="I359" s="1"/>
     </row>
-    <row r="360" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="9:9">
       <c r="I360" s="1"/>
     </row>
-    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="9:9">
       <c r="I361" s="1"/>
     </row>
-    <row r="362" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="9:9">
       <c r="I362" s="1"/>
     </row>
-    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="9:9">
       <c r="I363" s="1"/>
     </row>
-    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="9:9">
       <c r="I364" s="1"/>
     </row>
-    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="9:9">
       <c r="I365" s="1"/>
     </row>
-    <row r="366" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="9:9">
       <c r="I366" s="1"/>
     </row>
-    <row r="367" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="9:9">
       <c r="I367" s="1"/>
     </row>
-    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="9:9">
       <c r="I368" s="1"/>
     </row>
-    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="9:9">
       <c r="I369" s="1"/>
     </row>
-    <row r="370" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="9:9">
       <c r="I370" s="1"/>
     </row>
-    <row r="371" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="9:9">
       <c r="I371" s="1"/>
     </row>
-    <row r="372" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="9:9">
       <c r="I372" s="1"/>
     </row>
-    <row r="373" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="9:9">
       <c r="I373" s="1"/>
     </row>
-    <row r="374" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="9:9">
       <c r="I374" s="1"/>
     </row>
-    <row r="375" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="9:9">
       <c r="I375" s="1"/>
     </row>
-    <row r="376" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="9:9">
       <c r="I376" s="1"/>
     </row>
-    <row r="377" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="9:9">
       <c r="I377" s="1"/>
     </row>
-    <row r="378" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="9:9">
       <c r="I378" s="1"/>
     </row>
-    <row r="379" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="9:9">
       <c r="I379" s="1"/>
     </row>
-    <row r="380" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="9:9">
       <c r="I380" s="1"/>
     </row>
-    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="9:9">
       <c r="I381" s="1"/>
     </row>
-    <row r="382" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="9:9">
       <c r="I382" s="1"/>
     </row>
-    <row r="383" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="9:9">
       <c r="I383" s="1"/>
     </row>
   </sheetData>
@@ -8953,12 +8948,12 @@
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="128"/>
+    <col min="1" max="16384" width="8.83203125" style="128"/>
   </cols>
   <sheetData>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32">
       <c r="A33" s="128">
         <v>-9.0953000000000006E-2</v>
       </c>
@@ -9056,7 +9051,7 @@
         <v>4.8890000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32">
       <c r="A34" s="128">
         <v>-8.0912999999999999E-2</v>
       </c>
@@ -9154,7 +9149,7 @@
         <v>4.1682999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32">
       <c r="A35" s="128">
         <v>-7.2831000000000007E-2</v>
       </c>
@@ -9252,7 +9247,7 @@
         <v>3.3160000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32">
       <c r="A36" s="128">
         <v>-6.4700999999999995E-2</v>
       </c>
@@ -9350,7 +9345,7 @@
         <v>2.6872E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32">
       <c r="A37" s="128">
         <v>-5.7866000000000001E-2</v>
       </c>
@@ -9448,7 +9443,7 @@
         <v>2.2454000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32">
       <c r="A38" s="128">
         <v>-5.4802999999999998E-2</v>
       </c>
@@ -9546,7 +9541,7 @@
         <v>2.0046999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32">
       <c r="A39" s="128">
         <v>-5.0136E-2</v>
       </c>
@@ -9644,7 +9639,7 @@
         <v>1.7895999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32">
       <c r="A40" s="128">
         <v>-4.727E-2</v>
       </c>
@@ -9742,7 +9737,7 @@
         <v>1.6525000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32">
       <c r="A41" s="128">
         <v>-4.3806999999999999E-2</v>
       </c>
@@ -9840,7 +9835,7 @@
         <v>1.5278E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32">
       <c r="A42" s="128">
         <v>-4.2373000000000001E-2</v>
       </c>
@@ -9938,7 +9933,7 @@
         <v>1.4226000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32">
       <c r="A43" s="128">
         <v>-3.9827000000000001E-2</v>
       </c>
@@ -10036,7 +10031,7 @@
         <v>1.3440000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32">
       <c r="A44" s="128">
         <v>-3.8205999999999997E-2</v>
       </c>
@@ -10134,7 +10129,7 @@
         <v>1.2770999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32">
       <c r="A45" s="128">
         <v>-3.5992000000000003E-2</v>
       </c>
@@ -10232,7 +10227,7 @@
         <v>1.1983000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32">
       <c r="A46" s="128">
         <v>-3.4720000000000001E-2</v>
       </c>
@@ -10330,7 +10325,7 @@
         <v>1.1246000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32">
       <c r="A47" s="128">
         <v>-3.3440999999999999E-2</v>
       </c>
@@ -10428,7 +10423,7 @@
         <v>1.0725E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32">
       <c r="A48" s="128">
         <v>-3.2030000000000003E-2</v>
       </c>
@@ -10526,7 +10521,7 @@
         <v>1.0083999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32">
       <c r="A49" s="128">
         <v>-3.0896E-2</v>
       </c>
@@ -10624,7 +10619,7 @@
         <v>9.6019999999999994E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32">
       <c r="A50" s="128">
         <v>-2.9741E-2</v>
       </c>
@@ -10722,7 +10717,7 @@
         <v>9.0600000000000003E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32">
       <c r="A51" s="128">
         <v>-2.8746000000000001E-2</v>
       </c>
@@ -10820,7 +10815,7 @@
         <v>8.5710000000000005E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32">
       <c r="A52" s="128">
         <v>-2.7625E-2</v>
       </c>
@@ -10918,7 +10913,7 @@
         <v>8.1419999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32">
       <c r="A53" s="128">
         <v>-2.6488999999999999E-2</v>
       </c>
@@ -11016,7 +11011,7 @@
         <v>7.7590000000000003E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32">
       <c r="A54" s="128">
         <v>-2.5562999999999999E-2</v>
       </c>
@@ -11114,7 +11109,7 @@
         <v>7.3379999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32">
       <c r="A55" s="128">
         <v>-2.4518000000000002E-2</v>
       </c>
@@ -11212,7 +11207,7 @@
         <v>6.9950000000000003E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32">
       <c r="A56" s="128">
         <v>-2.3657000000000001E-2</v>
       </c>
@@ -11310,7 +11305,7 @@
         <v>6.5579999999999996E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32">
       <c r="A57" s="128">
         <v>-2.2834E-2</v>
       </c>
@@ -11408,7 +11403,7 @@
         <v>6.2700000000000004E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32">
       <c r="A58" s="128">
         <v>-2.1756999999999999E-2</v>
       </c>
@@ -11506,7 +11501,7 @@
         <v>5.921E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32">
       <c r="A59" s="128">
         <v>-2.0958000000000001E-2</v>
       </c>
@@ -11604,7 +11599,7 @@
         <v>5.62E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32">
       <c r="A60" s="128">
         <v>-2.0178999999999999E-2</v>
       </c>
@@ -11702,7 +11697,7 @@
         <v>5.3829999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32">
       <c r="A61" s="128">
         <v>-1.9153E-2</v>
       </c>
@@ -11800,7 +11795,7 @@
         <v>5.0769999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32">
       <c r="A62" s="128">
         <v>-1.8321E-2</v>
       </c>
@@ -11898,7 +11893,7 @@
         <v>4.7780000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32">
       <c r="A63" s="128">
         <v>-1.7819000000000002E-2</v>
       </c>
@@ -11996,7 +11991,7 @@
         <v>4.5919999999999997E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32">
       <c r="A64" s="128">
         <v>-1.7326999999999999E-2</v>
       </c>
@@ -12094,7 +12089,7 @@
         <v>4.4299999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32">
       <c r="A65" s="128">
         <v>-1.685E-2</v>
       </c>
@@ -12192,7 +12187,7 @@
         <v>4.2170000000000003E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32">
       <c r="A66" s="128">
         <v>-1.643E-2</v>
       </c>
@@ -12290,7 +12285,7 @@
         <v>4.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32">
       <c r="A67" s="128">
         <v>-1.6086E-2</v>
       </c>
@@ -12388,7 +12383,7 @@
         <v>3.9919999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32">
       <c r="A68" s="128">
         <v>-1.5671999999999998E-2</v>
       </c>
@@ -12486,7 +12481,7 @@
         <v>3.9020000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32">
       <c r="A69" s="128">
         <v>-1.5379E-2</v>
       </c>
@@ -12584,7 +12579,7 @@
         <v>3.7309999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32">
       <c r="A70" s="128">
         <v>-1.5176E-2</v>
       </c>
@@ -12682,7 +12677,7 @@
         <v>3.676E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32">
       <c r="A71" s="128">
         <v>-1.499E-2</v>
       </c>
@@ -12780,7 +12775,7 @@
         <v>3.5569999999999998E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32">
       <c r="A72" s="128">
         <v>-1.4888999999999999E-2</v>
       </c>
@@ -12878,7 +12873,7 @@
         <v>3.509E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32">
       <c r="A73" s="128">
         <v>-1.5158E-2</v>
       </c>
@@ -12976,7 +12971,7 @@
         <v>3.5179999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32">
       <c r="A74" s="128">
         <v>-1.4824E-2</v>
       </c>
@@ -13074,7 +13069,7 @@
         <v>3.431E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32">
       <c r="A75" s="128">
         <v>-1.4681E-2</v>
       </c>
@@ -13172,7 +13167,7 @@
         <v>3.2659999999999998E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32">
       <c r="A76" s="128">
         <v>-1.4349000000000001E-2</v>
       </c>
@@ -13270,7 +13265,7 @@
         <v>3.209E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32">
       <c r="A77" s="128">
         <v>-1.4076E-2</v>
       </c>
@@ -13368,7 +13363,7 @@
         <v>3.068E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32">
       <c r="A78" s="128">
         <v>-1.3774E-2</v>
       </c>
@@ -13466,7 +13461,7 @@
         <v>2.9780000000000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32">
       <c r="A79" s="128">
         <v>-1.3310000000000001E-2</v>
       </c>
@@ -13564,7 +13559,7 @@
         <v>2.823E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32">
       <c r="A80" s="128">
         <v>-1.3081000000000001E-2</v>
       </c>
@@ -13662,7 +13657,7 @@
         <v>2.7339999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32">
       <c r="A81" s="128">
         <v>-1.2728E-2</v>
       </c>
@@ -13760,7 +13755,7 @@
         <v>2.6440000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32">
       <c r="A82" s="128">
         <v>-1.2323000000000001E-2</v>
       </c>
@@ -13858,7 +13853,7 @@
         <v>2.565E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32">
       <c r="A83" s="128">
         <v>-1.1972E-2</v>
       </c>
@@ -13956,7 +13951,7 @@
         <v>2.532E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32">
       <c r="A84" s="128">
         <v>-1.1762999999999999E-2</v>
       </c>
@@ -14054,7 +14049,7 @@
         <v>2.4239999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32">
       <c r="A85" s="128">
         <v>-1.1298000000000001E-2</v>
       </c>
@@ -14152,7 +14147,7 @@
         <v>2.3630000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32">
       <c r="A86" s="128">
         <v>-1.0958000000000001E-2</v>
       </c>
@@ -14250,7 +14245,7 @@
         <v>2.3040000000000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32">
       <c r="A87" s="128">
         <v>-1.0623E-2</v>
       </c>
@@ -14348,7 +14343,7 @@
         <v>2.2230000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32">
       <c r="A88" s="128">
         <v>-1.0468999999999999E-2</v>
       </c>
@@ -14446,7 +14441,7 @@
         <v>2.186E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32">
       <c r="A89" s="128">
         <v>-1.0356000000000001E-2</v>
       </c>
@@ -14544,7 +14539,7 @@
         <v>2.052E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32">
       <c r="A90" s="128">
         <v>-1.0078999999999999E-2</v>
       </c>
@@ -14642,7 +14637,7 @@
         <v>2.0219999999999999E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32">
       <c r="A91" s="128">
         <v>-9.9600000000000001E-3</v>
       </c>
@@ -14740,7 +14735,7 @@
         <v>1.9289999999999999E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32">
       <c r="A92" s="128">
         <v>-9.9229999999999995E-3</v>
       </c>
@@ -14838,7 +14833,7 @@
         <v>1.905E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32">
       <c r="A93" s="128">
         <v>-9.9080000000000001E-3</v>
       </c>
@@ -14936,7 +14931,7 @@
         <v>1.7960000000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32">
       <c r="A94" s="128">
         <v>-9.8429999999999993E-3</v>
       </c>
@@ -15034,7 +15029,7 @@
         <v>1.771E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32">
       <c r="A95" s="128">
         <v>-9.9139999999999992E-3</v>
       </c>
@@ -15132,7 +15127,7 @@
         <v>1.7290000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32">
       <c r="A96" s="128">
         <v>-9.8729999999999998E-3</v>
       </c>
@@ -15230,7 +15225,7 @@
         <v>1.7459999999999999E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32">
       <c r="A97" s="128">
         <v>-9.9489999999999995E-3</v>
       </c>
@@ -15328,7 +15323,7 @@
         <v>1.7080000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32">
       <c r="A98" s="128">
         <v>-9.9380000000000007E-3</v>
       </c>
@@ -15426,7 +15421,7 @@
         <v>1.72E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32">
       <c r="A99" s="128">
         <v>-9.6970000000000008E-3</v>
       </c>
@@ -15524,7 +15519,7 @@
         <v>1.709E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32">
       <c r="A100" s="128">
         <v>-9.5849999999999998E-3</v>
       </c>
@@ -15622,7 +15617,7 @@
         <v>1.681E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32">
       <c r="A101" s="128">
         <v>-9.4909999999999994E-3</v>
       </c>
@@ -15720,7 +15715,7 @@
         <v>1.6490000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32">
       <c r="A102" s="128">
         <v>-9.4059999999999994E-3</v>
       </c>
@@ -15818,7 +15813,7 @@
         <v>1.6230000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32">
       <c r="A103" s="128">
         <v>-9.3069999999999993E-3</v>
       </c>
@@ -15916,7 +15911,7 @@
         <v>1.6609999999999999E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32">
       <c r="A104" s="128">
         <v>-9.044E-3</v>
       </c>
@@ -16014,7 +16009,7 @@
         <v>1.6949999999999999E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32">
       <c r="A105" s="128">
         <v>-8.7919999999999995E-3</v>
       </c>
@@ -16112,7 +16107,7 @@
         <v>1.604E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32">
       <c r="A106" s="128">
         <v>-8.7250000000000001E-3</v>
       </c>
@@ -16210,7 +16205,7 @@
         <v>1.5269999999999999E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32">
       <c r="A107" s="128">
         <v>-8.5419999999999992E-3</v>
       </c>
@@ -16308,7 +16303,7 @@
         <v>1.5659999999999999E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32">
       <c r="A108" s="128">
         <v>-8.7600000000000004E-3</v>
       </c>
@@ -16406,7 +16401,7 @@
         <v>1.5920000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32">
       <c r="A109" s="128">
         <v>-9.0320000000000001E-3</v>
       </c>
@@ -16504,7 +16499,7 @@
         <v>1.6590000000000001E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32">
       <c r="A110" s="128">
         <v>-9.0639999999999991E-3</v>
       </c>
@@ -16602,7 +16597,7 @@
         <v>1.5900000000000001E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32">
       <c r="A111" s="128">
         <v>-8.7989999999999995E-3</v>
       </c>
@@ -16700,7 +16695,7 @@
         <v>1.668E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32">
       <c r="A112" s="128">
         <v>-9.0760000000000007E-3</v>
       </c>
@@ -16798,7 +16793,7 @@
         <v>1.663E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32">
       <c r="A113" s="128">
         <v>-8.9210000000000001E-3</v>
       </c>
@@ -16896,7 +16891,7 @@
         <v>1.704E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32">
       <c r="A114" s="128">
         <v>-9.2189999999999998E-3</v>
       </c>
@@ -16994,7 +16989,7 @@
         <v>1.7619999999999999E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32">
       <c r="A115" s="128">
         <v>-9.0240000000000008E-3</v>
       </c>
@@ -17110,12 +17105,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="128"/>
+    <col min="1" max="16384" width="8.83203125" style="128"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="128">
         <v>2.8624E-2</v>
       </c>
@@ -17213,7 +17208,7 @@
         <v>-2.6213E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="128">
         <v>1.8917E-2</v>
       </c>
@@ -17311,7 +17306,7 @@
         <v>-2.0872999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="128">
         <v>1.559E-2</v>
       </c>
@@ -17409,7 +17404,7 @@
         <v>-1.8058999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="128">
         <v>1.1214999999999999E-2</v>
       </c>
@@ -17507,7 +17502,7 @@
         <v>-1.5514999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="128">
         <v>6.9930000000000001E-3</v>
       </c>
@@ -17605,7 +17600,7 @@
         <v>-1.1738E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="128">
         <v>5.5050000000000003E-3</v>
       </c>
@@ -17703,7 +17698,7 @@
         <v>-1.0191E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="128">
         <v>2.176E-3</v>
       </c>
@@ -17801,7 +17796,7 @@
         <v>-7.7200000000000003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="128">
         <v>1.6639999999999999E-3</v>
       </c>
@@ -17899,7 +17894,7 @@
         <v>-6.7419999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="128">
         <v>1.5100000000000001E-4</v>
       </c>
@@ -17997,7 +17992,7 @@
         <v>-5.3429999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32">
       <c r="A10" s="128">
         <v>-2.2669999999999999E-3</v>
       </c>
@@ -18095,7 +18090,7 @@
         <v>-4.1539999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11" s="128">
         <v>-2.3939999999999999E-3</v>
       </c>
@@ -18193,7 +18188,7 @@
         <v>-3.3080000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12" s="128">
         <v>-4.3470000000000002E-3</v>
       </c>
@@ -18291,7 +18286,7 @@
         <v>-2.0509999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13" s="128">
         <v>-5.169E-3</v>
       </c>
@@ -18389,7 +18384,7 @@
         <v>-1.235E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="A14" s="128">
         <v>-5.0509999999999999E-3</v>
       </c>
@@ -18487,7 +18482,7 @@
         <v>-3.4600000000000001E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15" s="128">
         <v>-6.2979999999999998E-3</v>
       </c>
@@ -18585,7 +18580,7 @@
         <v>3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16" s="128">
         <v>-7.1710000000000003E-3</v>
       </c>
@@ -18683,7 +18678,7 @@
         <v>1.091E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17" s="128">
         <v>-6.9649999999999998E-3</v>
       </c>
@@ -18781,7 +18776,7 @@
         <v>1.6800000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18" s="128">
         <v>-8.1329999999999996E-3</v>
       </c>
@@ -18879,7 +18874,7 @@
         <v>2.281E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19" s="128">
         <v>-8.482E-3</v>
       </c>
@@ -18977,7 +18972,7 @@
         <v>2.7989999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="128">
         <v>-8.6219999999999995E-3</v>
       </c>
@@ -19075,7 +19070,7 @@
         <v>3.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="A21" s="128">
         <v>-9.5619999999999993E-3</v>
       </c>
@@ -19173,7 +19168,7 @@
         <v>3.3649999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="A22" s="128">
         <v>-9.4710000000000003E-3</v>
       </c>
@@ -19271,7 +19266,7 @@
         <v>3.8149999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="A23" s="128">
         <v>-9.9360000000000004E-3</v>
       </c>
@@ -19369,7 +19364,7 @@
         <v>3.7320000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="A24" s="128">
         <v>-1.0436000000000001E-2</v>
       </c>
@@ -19467,7 +19462,7 @@
         <v>4.0070000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="A25" s="128">
         <v>-1.0628E-2</v>
       </c>
@@ -19565,7 +19560,7 @@
         <v>4.228E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="A26" s="128">
         <v>-1.0517E-2</v>
       </c>
@@ -19663,7 +19658,7 @@
         <v>4.0280000000000003E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" s="128">
         <v>-1.0755000000000001E-2</v>
       </c>
@@ -19761,7 +19756,7 @@
         <v>4.3470000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="A28" s="128">
         <v>-1.0059E-2</v>
       </c>
@@ -19859,7 +19854,7 @@
         <v>4.2839999999999996E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="A29" s="128">
         <v>-9.7890000000000008E-3</v>
       </c>
@@ -19957,7 +19952,7 @@
         <v>4.1330000000000004E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="A30" s="128">
         <v>-9.6740000000000003E-3</v>
       </c>
@@ -20055,7 +20050,7 @@
         <v>4.2389999999999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="A31" s="128">
         <v>-8.6700000000000006E-3</v>
       </c>
@@ -20153,7 +20148,7 @@
         <v>4.091E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="A32" s="128">
         <v>-8.8000000000000005E-3</v>
       </c>
@@ -20251,7 +20246,7 @@
         <v>3.8809999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32">
       <c r="A33" s="128">
         <v>-8.3979999999999992E-3</v>
       </c>
@@ -20349,7 +20344,7 @@
         <v>3.8969999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32">
       <c r="A34" s="128">
         <v>-8.5859999999999999E-3</v>
       </c>
@@ -20447,7 +20442,7 @@
         <v>3.7330000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32">
       <c r="A35" s="128">
         <v>-8.4939999999999998E-3</v>
       </c>
@@ -20545,7 +20540,7 @@
         <v>3.7169999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32">
       <c r="A36" s="128">
         <v>-8.4589999999999995E-3</v>
       </c>
@@ -20643,7 +20638,7 @@
         <v>3.7690000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32">
       <c r="A37" s="128">
         <v>-8.1189999999999995E-3</v>
       </c>
@@ -20741,7 +20736,7 @@
         <v>3.5620000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32">
       <c r="A38" s="128">
         <v>-8.1670000000000006E-3</v>
       </c>
@@ -20839,7 +20834,7 @@
         <v>3.5010000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32">
       <c r="A39" s="128">
         <v>-8.0450000000000001E-3</v>
       </c>
@@ -20937,7 +20932,7 @@
         <v>3.5799999999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32">
       <c r="A40" s="128">
         <v>-7.9430000000000004E-3</v>
       </c>
@@ -21035,7 +21030,7 @@
         <v>3.4459999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32">
       <c r="A41" s="128">
         <v>-8.3420000000000005E-3</v>
       </c>
@@ -21133,7 +21128,7 @@
         <v>3.3930000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32">
       <c r="A42" s="128">
         <v>-8.2679999999999993E-3</v>
       </c>
@@ -21231,7 +21226,7 @@
         <v>3.4129999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32">
       <c r="A43" s="128">
         <v>-8.0020000000000004E-3</v>
       </c>
@@ -21329,7 +21324,7 @@
         <v>3.2690000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32">
       <c r="A44" s="128">
         <v>-8.1659999999999996E-3</v>
       </c>
@@ -21427,7 +21422,7 @@
         <v>3.1389999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32">
       <c r="A45" s="128">
         <v>-8.1200000000000005E-3</v>
       </c>
@@ -21525,7 +21520,7 @@
         <v>3.0920000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32">
       <c r="A46" s="128">
         <v>-7.8169999999999993E-3</v>
       </c>
@@ -21623,7 +21618,7 @@
         <v>3.032E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32">
       <c r="A47" s="128">
         <v>-7.7219999999999997E-3</v>
       </c>
@@ -21721,7 +21716,7 @@
         <v>2.8960000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32">
       <c r="A48" s="128">
         <v>-7.5599999999999999E-3</v>
       </c>
@@ -21819,7 +21814,7 @@
         <v>2.8189999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32">
       <c r="A49" s="128">
         <v>-7.3460000000000001E-3</v>
       </c>
@@ -21917,7 +21912,7 @@
         <v>2.6150000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32">
       <c r="A50" s="128">
         <v>-7.4289999999999998E-3</v>
       </c>
@@ -22015,7 +22010,7 @@
         <v>2.5760000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32">
       <c r="A51" s="128">
         <v>-7.1630000000000001E-3</v>
       </c>
@@ -22113,7 +22108,7 @@
         <v>2.539E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32">
       <c r="A52" s="128">
         <v>-7.097E-3</v>
       </c>
@@ -22211,7 +22206,7 @@
         <v>2.441E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32">
       <c r="A53" s="128">
         <v>-6.7190000000000001E-3</v>
       </c>
@@ -22309,7 +22304,7 @@
         <v>2.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32">
       <c r="A54" s="128">
         <v>-6.4929999999999996E-3</v>
       </c>
@@ -22407,7 +22402,7 @@
         <v>2.2490000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32">
       <c r="A55" s="128">
         <v>-6.3049999999999998E-3</v>
       </c>
@@ -22505,7 +22500,7 @@
         <v>2.281E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32">
       <c r="A56" s="128">
         <v>-6.1399999999999996E-3</v>
       </c>
@@ -22603,7 +22598,7 @@
         <v>2.2100000000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32">
       <c r="A57" s="128">
         <v>-6.1919999999999996E-3</v>
       </c>
@@ -22701,7 +22696,7 @@
         <v>2.1450000000000002E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32">
       <c r="A58" s="128">
         <v>-6.1989999999999996E-3</v>
       </c>
@@ -22799,7 +22794,7 @@
         <v>2.0869999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32">
       <c r="A59" s="128">
         <v>-5.7390000000000002E-3</v>
       </c>
@@ -22897,7 +22892,7 @@
         <v>1.9880000000000002E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32">
       <c r="A60" s="128">
         <v>-5.8050000000000003E-3</v>
       </c>
@@ -22995,7 +22990,7 @@
         <v>2.0209999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32">
       <c r="A61" s="128">
         <v>-5.9049999999999997E-3</v>
       </c>
@@ -23093,7 +23088,7 @@
         <v>2.032E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32">
       <c r="A62" s="128">
         <v>-5.5009999999999998E-3</v>
       </c>
@@ -23191,7 +23186,7 @@
         <v>1.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32">
       <c r="A63" s="128">
         <v>-5.9509999999999997E-3</v>
       </c>
@@ -23289,7 +23284,7 @@
         <v>2.0579999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32">
       <c r="A64" s="128">
         <v>-5.7219999999999997E-3</v>
       </c>
@@ -23387,7 +23382,7 @@
         <v>2.0179999999999998E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32">
       <c r="A65" s="128">
         <v>-5.3810000000000004E-3</v>
       </c>
@@ -23485,7 +23480,7 @@
         <v>1.9319999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32">
       <c r="A66" s="128">
         <v>-5.3949999999999996E-3</v>
       </c>
@@ -23583,7 +23578,7 @@
         <v>1.872E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32">
       <c r="A67" s="128">
         <v>-4.888E-3</v>
       </c>
@@ -23681,7 +23676,7 @@
         <v>1.7420000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32">
       <c r="A68" s="128">
         <v>-4.3439999999999998E-3</v>
       </c>
@@ -23779,7 +23774,7 @@
         <v>1.603E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32">
       <c r="A69" s="128">
         <v>-4.3610000000000003E-3</v>
       </c>
@@ -23877,7 +23872,7 @@
         <v>1.635E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32">
       <c r="A70" s="128">
         <v>-3.9189999999999997E-3</v>
       </c>
@@ -23975,7 +23970,7 @@
         <v>1.567E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32">
       <c r="A71" s="128">
         <v>-3.6189999999999998E-3</v>
       </c>
@@ -24073,7 +24068,7 @@
         <v>1.49E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32">
       <c r="A72" s="128">
         <v>-3.9050000000000001E-3</v>
       </c>
@@ -24171,7 +24166,7 @@
         <v>1.338E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32">
       <c r="A73" s="128">
         <v>-3.2299999999999998E-3</v>
       </c>
@@ -24269,7 +24264,7 @@
         <v>1.194E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32">
       <c r="A74" s="128">
         <v>-3.2490000000000002E-3</v>
       </c>
@@ -24367,7 +24362,7 @@
         <v>1.1039999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32">
       <c r="A75" s="128">
         <v>-3.4610000000000001E-3</v>
       </c>
@@ -24465,7 +24460,7 @@
         <v>8.8699999999999998E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32">
       <c r="A76" s="128">
         <v>-2.6809999999999998E-3</v>
       </c>
@@ -24563,7 +24558,7 @@
         <v>9.4600000000000001E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32">
       <c r="A77" s="128">
         <v>-2.8149999999999998E-3</v>
       </c>
@@ -24661,7 +24656,7 @@
         <v>9.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32">
       <c r="A78" s="128">
         <v>-3.0730000000000002E-3</v>
       </c>
@@ -24759,7 +24754,7 @@
         <v>6.7299999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32">
       <c r="A79" s="128">
         <v>-2.8029999999999999E-3</v>
       </c>
@@ -24857,7 +24852,7 @@
         <v>5.6599999999999999E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32">
       <c r="A80" s="128">
         <v>-2.9949999999999998E-3</v>
       </c>
@@ -24955,7 +24950,7 @@
         <v>5.4299999999999997E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32">
       <c r="A81" s="128">
         <v>-2.663E-3</v>
       </c>
@@ -25053,7 +25048,7 @@
         <v>5.8E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32">
       <c r="A82" s="128">
         <v>-2.6210000000000001E-3</v>
       </c>
@@ -25151,7 +25146,7 @@
         <v>5.4600000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32">
       <c r="A83" s="128">
         <v>-3.068E-3</v>
       </c>
@@ -25267,9 +25262,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35">
       <c r="A1" s="130">
         <v>5.8145000000000002E-2</v>
       </c>
@@ -25376,7 +25371,7 @@
         <v>-1.7849E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35">
       <c r="A2" s="130">
         <v>5.3862E-2</v>
       </c>
@@ -25483,7 +25478,7 @@
         <v>-1.7426000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35">
       <c r="A3" s="130">
         <v>5.0741000000000001E-2</v>
       </c>
@@ -25590,7 +25585,7 @@
         <v>-1.6549999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" s="130">
         <v>4.9193000000000001E-2</v>
       </c>
@@ -25697,7 +25692,7 @@
         <v>-1.5065E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35">
       <c r="A5" s="130">
         <v>4.4810000000000003E-2</v>
       </c>
@@ -25804,7 +25799,7 @@
         <v>-1.3769E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="130">
         <v>4.1911999999999998E-2</v>
       </c>
@@ -25911,7 +25906,7 @@
         <v>-1.3153E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="130">
         <v>3.8033999999999998E-2</v>
       </c>
@@ -26018,7 +26013,7 @@
         <v>-1.1665E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="130">
         <v>3.5549999999999998E-2</v>
       </c>
@@ -26125,7 +26120,7 @@
         <v>-1.0423E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="130">
         <v>3.2904999999999997E-2</v>
       </c>
@@ -26232,7 +26227,7 @@
         <v>-9.6329999999999992E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="130">
         <v>3.0456E-2</v>
       </c>
@@ -26339,7 +26334,7 @@
         <v>-8.5179999999999995E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11" s="130">
         <v>2.8084999999999999E-2</v>
       </c>
@@ -26446,7 +26441,7 @@
         <v>-7.744E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12" s="130">
         <v>2.6182E-2</v>
       </c>
@@ -26553,7 +26548,7 @@
         <v>-7.149E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="130">
         <v>2.4112999999999999E-2</v>
       </c>
@@ -26660,7 +26655,7 @@
         <v>-6.2830000000000004E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="130">
         <v>2.2483E-2</v>
       </c>
@@ -26767,7 +26762,7 @@
         <v>-5.8149999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="130">
         <v>2.1183E-2</v>
       </c>
@@ -26874,7 +26869,7 @@
         <v>-5.0309999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="130">
         <v>1.9630999999999999E-2</v>
       </c>
@@ -26981,7 +26976,7 @@
         <v>-4.7569999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="130">
         <v>1.8738000000000001E-2</v>
       </c>
@@ -27088,7 +27083,7 @@
         <v>-4.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="130">
         <v>1.7500000000000002E-2</v>
       </c>
@@ -27195,7 +27190,7 @@
         <v>-3.6570000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="130">
         <v>1.6466999999999999E-2</v>
       </c>
@@ -27302,7 +27297,7 @@
         <v>-3.3809999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="130">
         <v>1.5292999999999999E-2</v>
       </c>
@@ -27409,7 +27404,7 @@
         <v>-3.1159999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="130">
         <v>1.4437E-2</v>
       </c>
@@ -27516,7 +27511,7 @@
         <v>-2.7079999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="130">
         <v>1.3691E-2</v>
       </c>
@@ -27623,7 +27618,7 @@
         <v>-2.555E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="130">
         <v>1.3044999999999999E-2</v>
       </c>
@@ -27730,7 +27725,7 @@
         <v>-2.2439999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="130">
         <v>1.2416999999999999E-2</v>
       </c>
@@ -27837,7 +27832,7 @@
         <v>-2.1129999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="130">
         <v>1.1998999999999999E-2</v>
       </c>
@@ -27944,7 +27939,7 @@
         <v>-1.9689999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="130">
         <v>1.1361E-2</v>
       </c>
@@ -28051,7 +28046,7 @@
         <v>-1.797E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="130">
         <v>1.0914E-2</v>
       </c>
@@ -28158,7 +28153,7 @@
         <v>-1.5900000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="130">
         <v>1.0624E-2</v>
       </c>
@@ -28265,7 +28260,7 @@
         <v>-1.5319999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="130">
         <v>1.0217E-2</v>
       </c>
@@ -28372,7 +28367,7 @@
         <v>-1.4139999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="130">
         <v>9.8580000000000004E-3</v>
       </c>
@@ -28479,7 +28474,7 @@
         <v>-1.3290000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="130">
         <v>9.6450000000000008E-3</v>
       </c>
@@ -28586,7 +28581,7 @@
         <v>-1.273E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="130">
         <v>9.1929999999999998E-3</v>
       </c>
@@ -28693,7 +28688,7 @@
         <v>-1.1770000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="130">
         <v>8.7939999999999997E-3</v>
       </c>
@@ -28800,7 +28795,7 @@
         <v>-1.1919999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="130">
         <v>8.3140000000000002E-3</v>
       </c>
@@ -28907,7 +28902,7 @@
         <v>-1.0610000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="130">
         <v>7.45E-3</v>
       </c>
@@ -29014,7 +29009,7 @@
         <v>-1.0510000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="130">
         <v>7.1760000000000001E-3</v>
       </c>
@@ -29121,7 +29116,7 @@
         <v>-1.018E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="130">
         <v>6.7720000000000002E-3</v>
       </c>
@@ -29228,7 +29223,7 @@
         <v>-9.4799999999999995E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="130">
         <v>6.3899999999999998E-3</v>
       </c>
@@ -29335,7 +29330,7 @@
         <v>-1.034E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="130">
         <v>5.9950000000000003E-3</v>
       </c>
@@ -29442,7 +29437,7 @@
         <v>-9.68E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="130">
         <v>5.6429999999999996E-3</v>
       </c>
@@ -29549,7 +29544,7 @@
         <v>-8.8599999999999996E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="130">
         <v>5.646E-3</v>
       </c>
@@ -29656,7 +29651,7 @@
         <v>-8.5300000000000003E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="130">
         <v>5.6140000000000001E-3</v>
       </c>
@@ -29763,7 +29758,7 @@
         <v>-7.9799999999999999E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="130">
         <v>5.5240000000000003E-3</v>
       </c>
@@ -29870,7 +29865,7 @@
         <v>-7.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="130">
         <v>5.4510000000000001E-3</v>
       </c>
@@ -29977,7 +29972,7 @@
         <v>-6.4599999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="130">
         <v>3.16E-3</v>
       </c>
@@ -30084,7 +30079,7 @@
         <v>-7.2900000000000005E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="130">
         <v>3.689E-3</v>
       </c>
@@ -30191,7 +30186,7 @@
         <v>-6.78E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="130">
         <v>3.9750000000000002E-3</v>
       </c>
@@ -30298,7 +30293,7 @@
         <v>-5.9599999999999996E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="130">
         <v>4.5079999999999999E-3</v>
       </c>
@@ -30405,7 +30400,7 @@
         <v>-6.2699999999999995E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="130">
         <v>5.1929999999999997E-3</v>
       </c>
@@ -30512,7 +30507,7 @@
         <v>-5.2300000000000003E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="130">
         <v>5.7359999999999998E-3</v>
       </c>
@@ -30619,7 +30614,7 @@
         <v>-4.35E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="130">
         <v>6.1029999999999999E-3</v>
       </c>
@@ -30726,7 +30721,7 @@
         <v>-4.0400000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="130">
         <v>6.4520000000000003E-3</v>
       </c>
@@ -30833,7 +30828,7 @@
         <v>-3.5100000000000002E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="130">
         <v>6.509E-3</v>
       </c>
@@ -30940,7 +30935,7 @@
         <v>-2.9399999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="130">
         <v>6.5579999999999996E-3</v>
       </c>
@@ -31047,7 +31042,7 @@
         <v>-2.7E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="130">
         <v>6.4460000000000003E-3</v>
       </c>
@@ -31154,7 +31149,7 @@
         <v>-2.24E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="130">
         <v>6.2220000000000001E-3</v>
       </c>
@@ -31261,7 +31256,7 @@
         <v>-2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="130">
         <v>5.9119999999999997E-3</v>
       </c>
@@ -31368,7 +31363,7 @@
         <v>-1.7899999999999999E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="130">
         <v>5.509E-3</v>
       </c>
@@ -31475,7 +31470,7 @@
         <v>-1.8900000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="130">
         <v>5.2639999999999996E-3</v>
       </c>
@@ -31582,7 +31577,7 @@
         <v>-1.36E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="130">
         <v>4.9509999999999997E-3</v>
       </c>
@@ -31689,7 +31684,7 @@
         <v>-1.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="130">
         <v>4.6670000000000001E-3</v>
       </c>
@@ -31796,7 +31791,7 @@
         <v>-1.25E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="130">
         <v>4.3179999999999998E-3</v>
       </c>
@@ -31903,7 +31898,7 @@
         <v>-1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="130">
         <v>4.0920000000000002E-3</v>
       </c>
@@ -32010,7 +32005,7 @@
         <v>-1.01E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35">
       <c r="A64" s="130">
         <v>3.9029999999999998E-3</v>
       </c>
@@ -32117,7 +32112,7 @@
         <v>-9.6000000000000002E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35">
       <c r="A65" s="130">
         <v>3.7910000000000001E-3</v>
       </c>
@@ -32224,7 +32219,7 @@
         <v>-5.1E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35">
       <c r="A66" s="130">
         <v>3.3999999999999998E-3</v>
       </c>
@@ -32331,7 +32326,7 @@
         <v>-7.8999999999999996E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35">
       <c r="A67" s="130">
         <v>3.6159999999999999E-3</v>
       </c>
@@ -32438,7 +32433,7 @@
         <v>-6.7000000000000002E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35">
       <c r="A68" s="130">
         <v>3.4559999999999999E-3</v>
       </c>
@@ -32545,7 +32540,7 @@
         <v>-1.12E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35">
       <c r="A69" s="130">
         <v>3.5300000000000002E-3</v>
       </c>
@@ -32652,7 +32647,7 @@
         <v>-6.7999999999999999E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35">
       <c r="A70" s="130">
         <v>3.6350000000000002E-3</v>
       </c>
@@ -32759,7 +32754,7 @@
         <v>-1.21E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35">
       <c r="A71" s="130">
         <v>3.5890000000000002E-3</v>
       </c>
@@ -32866,7 +32861,7 @@
         <v>-1.5200000000000001E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35">
       <c r="A72" s="130">
         <v>3.4380000000000001E-3</v>
       </c>
@@ -32973,7 +32968,7 @@
         <v>-1.36E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35">
       <c r="A73" s="130">
         <v>3.5370000000000002E-3</v>
       </c>
@@ -33080,7 +33075,7 @@
         <v>-1.2400000000000001E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35">
       <c r="A74" s="130">
         <v>3.539E-3</v>
       </c>
@@ -33187,7 +33182,7 @@
         <v>-2.42E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35">
       <c r="A75" s="130">
         <v>3.3300000000000001E-3</v>
       </c>
@@ -33294,7 +33289,7 @@
         <v>-3.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35">
       <c r="A76" s="130">
         <v>3.026E-3</v>
       </c>
@@ -33401,7 +33396,7 @@
         <v>-3.3399999999999999E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35">
       <c r="A77" s="130">
         <v>2.947E-3</v>
       </c>
@@ -33508,7 +33503,7 @@
         <v>-2.9700000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35">
       <c r="A78" s="130">
         <v>2.8010000000000001E-3</v>
       </c>
@@ -33615,7 +33610,7 @@
         <v>-3.8099999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35">
       <c r="A79" s="130">
         <v>2.6350000000000002E-3</v>
       </c>
@@ -33722,7 +33717,7 @@
         <v>-3.9399999999999998E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35">
       <c r="A80" s="130">
         <v>2.2690000000000002E-3</v>
       </c>
@@ -33829,7 +33824,7 @@
         <v>-4.8700000000000002E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35">
       <c r="A81" s="130">
         <v>2.0170000000000001E-3</v>
       </c>
@@ -33936,7 +33931,7 @@
         <v>-4.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35">
       <c r="A82" s="130">
         <v>1.8090000000000001E-3</v>
       </c>
@@ -34043,7 +34038,7 @@
         <v>-4.64E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35">
       <c r="A83" s="130">
         <v>1.534E-3</v>
       </c>
@@ -34150,7 +34145,7 @@
         <v>-4.17E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35">
       <c r="A84" s="130">
         <v>1.4760000000000001E-3</v>
       </c>
@@ -34257,7 +34252,7 @@
         <v>-4.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35">
       <c r="A85" s="130">
         <v>1.1770000000000001E-3</v>
       </c>
@@ -34364,7 +34359,7 @@
         <v>-2.8899999999999998E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35">
       <c r="A86" s="130">
         <v>1.4040000000000001E-3</v>
       </c>
@@ -34471,7 +34466,7 @@
         <v>-3.8099999999999999E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35">
       <c r="A87" s="130">
         <v>1.5039999999999999E-3</v>
       </c>
@@ -34596,9 +34591,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35">
       <c r="A1" s="131">
         <v>5.833E-2</v>
       </c>
@@ -34705,7 +34700,7 @@
         <v>-1.7080999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35">
       <c r="A2" s="131">
         <v>5.0630000000000001E-2</v>
       </c>
@@ -34812,7 +34807,7 @@
         <v>-1.3971000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35">
       <c r="A3" s="131">
         <v>4.2511E-2</v>
       </c>
@@ -34919,7 +34914,7 @@
         <v>-1.1730000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" s="131">
         <v>3.5297000000000002E-2</v>
       </c>
@@ -35026,7 +35021,7 @@
         <v>-1.0309E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35">
       <c r="A5" s="131">
         <v>3.1405000000000002E-2</v>
       </c>
@@ -35133,7 +35128,7 @@
         <v>-9.6600000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="131">
         <v>2.7085999999999999E-2</v>
       </c>
@@ -35240,7 +35235,7 @@
         <v>-8.4740000000000006E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="131">
         <v>2.3845000000000002E-2</v>
       </c>
@@ -35347,7 +35342,7 @@
         <v>-7.5290000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="131">
         <v>2.0577000000000002E-2</v>
       </c>
@@ -35454,7 +35449,7 @@
         <v>-7.0559999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="131">
         <v>1.8616000000000001E-2</v>
       </c>
@@ -35561,7 +35556,7 @@
         <v>-5.7889999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="131">
         <v>1.6234999999999999E-2</v>
       </c>
@@ -35668,7 +35663,7 @@
         <v>-6.0340000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11" s="131">
         <v>1.4409999999999999E-2</v>
       </c>
@@ -35775,7 +35770,7 @@
         <v>-4.6230000000000004E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12" s="131">
         <v>1.2282E-2</v>
       </c>
@@ -35882,7 +35877,7 @@
         <v>-4.6959999999999997E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="131">
         <v>1.1227000000000001E-2</v>
       </c>
@@ -35989,7 +35984,7 @@
         <v>-4.4689999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="131">
         <v>9.3970000000000008E-3</v>
       </c>
@@ -36096,7 +36091,7 @@
         <v>-3.748E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="131">
         <v>8.1569999999999993E-3</v>
       </c>
@@ -36203,7 +36198,7 @@
         <v>-3.8149999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="131">
         <v>7.7809999999999997E-3</v>
       </c>
@@ -36310,7 +36305,7 @@
         <v>-3.088E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="131">
         <v>6.3090000000000004E-3</v>
       </c>
@@ -36417,7 +36412,7 @@
         <v>-2.8730000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="131">
         <v>6.1009999999999997E-3</v>
       </c>
@@ -36524,7 +36519,7 @@
         <v>-2.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="131">
         <v>5.1640000000000002E-3</v>
       </c>
@@ -36631,7 +36626,7 @@
         <v>-2.4459999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="131">
         <v>4.3660000000000001E-3</v>
       </c>
@@ -36738,7 +36733,7 @@
         <v>-2.3449999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="131">
         <v>4.1260000000000003E-3</v>
       </c>
@@ -36845,7 +36840,7 @@
         <v>-2.418E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="131">
         <v>3.3660000000000001E-3</v>
       </c>
@@ -36952,7 +36947,7 @@
         <v>-1.9840000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="131">
         <v>2.7100000000000002E-3</v>
       </c>
@@ -37059,7 +37054,7 @@
         <v>-2.2369999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="131">
         <v>2.643E-3</v>
       </c>
@@ -37166,7 +37161,7 @@
         <v>-2.0330000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="131">
         <v>1.9989999999999999E-3</v>
       </c>
@@ -37273,7 +37268,7 @@
         <v>-1.7799999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="131">
         <v>1.8389999999999999E-3</v>
       </c>
@@ -37380,7 +37375,7 @@
         <v>-1.928E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="131">
         <v>1.284E-3</v>
       </c>
@@ -37487,7 +37482,7 @@
         <v>-1.8159999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="131">
         <v>1.1280000000000001E-3</v>
       </c>
@@ -37594,7 +37589,7 @@
         <v>-1.707E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="131">
         <v>8.3600000000000005E-4</v>
       </c>
@@ -37701,7 +37696,7 @@
         <v>-1.786E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="131">
         <v>5.2700000000000002E-4</v>
       </c>
@@ -37808,7 +37803,7 @@
         <v>-1.5679999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="131">
         <v>4.17E-4</v>
       </c>
@@ -37915,7 +37910,7 @@
         <v>-1.714E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="131">
         <v>3.6000000000000002E-4</v>
       </c>
@@ -38022,7 +38017,7 @@
         <v>-1.691E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="131">
         <v>1.3799999999999999E-4</v>
       </c>
@@ -38129,7 +38124,7 @@
         <v>-1.5299999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="131">
         <v>1.9699999999999999E-4</v>
       </c>
@@ -38236,7 +38231,7 @@
         <v>-1.67E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="131">
         <v>3.1700000000000001E-4</v>
       </c>
@@ -38343,7 +38338,7 @@
         <v>-1.5709999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="131">
         <v>2.6699999999999998E-4</v>
       </c>
@@ -38450,7 +38445,7 @@
         <v>-1.4909999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="131">
         <v>3.7399999999999998E-4</v>
       </c>
@@ -38557,7 +38552,7 @@
         <v>-1.771E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="131">
         <v>1.6100000000000001E-4</v>
       </c>
@@ -38664,7 +38659,7 @@
         <v>-1.5770000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="131">
         <v>3.6400000000000001E-4</v>
       </c>
@@ -38771,7 +38766,7 @@
         <v>-1.704E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="131">
         <v>5.31E-4</v>
       </c>
@@ -38878,7 +38873,7 @@
         <v>-1.7780000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="131">
         <v>6.0099999999999997E-4</v>
       </c>
@@ -38985,7 +38980,7 @@
         <v>-1.6069999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="131">
         <v>7.6800000000000002E-4</v>
       </c>
@@ -39092,7 +39087,7 @@
         <v>-1.7459999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="131">
         <v>7.7800000000000005E-4</v>
       </c>
@@ -39199,7 +39194,7 @@
         <v>-1.745E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="131">
         <v>7.7999999999999999E-4</v>
       </c>
@@ -39306,7 +39301,7 @@
         <v>-1.6739999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="131">
         <v>1.5899999999999999E-4</v>
       </c>
@@ -39413,7 +39408,7 @@
         <v>-1.585E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="131">
         <v>5.5699999999999999E-4</v>
       </c>
@@ -39520,7 +39515,7 @@
         <v>-1.4170000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="131">
         <v>7.9100000000000004E-4</v>
       </c>
@@ -39627,7 +39622,7 @@
         <v>-1.49E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="131">
         <v>1.152E-3</v>
       </c>
@@ -39734,7 +39729,7 @@
         <v>-1.4790000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="131">
         <v>1.1800000000000001E-3</v>
       </c>
@@ -39841,7 +39836,7 @@
         <v>-1.4549999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="131">
         <v>1.1789999999999999E-3</v>
       </c>
@@ -39948,7 +39943,7 @@
         <v>-1.4909999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="131">
         <v>1.155E-3</v>
       </c>
@@ -40055,7 +40050,7 @@
         <v>-1.454E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="131">
         <v>1.284E-3</v>
       </c>
@@ -40162,7 +40157,7 @@
         <v>-1.4109999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="131">
         <v>1.276E-3</v>
       </c>
@@ -40269,7 +40264,7 @@
         <v>-1.6919999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="131">
         <v>1.3960000000000001E-3</v>
       </c>
@@ -40376,7 +40371,7 @@
         <v>-1.544E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="131">
         <v>1.2329999999999999E-3</v>
       </c>
@@ -40483,7 +40478,7 @@
         <v>-1.5690000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="131">
         <v>9.6100000000000005E-4</v>
       </c>
@@ -40590,7 +40585,7 @@
         <v>-1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="131">
         <v>1.0169999999999999E-3</v>
       </c>
@@ -40697,7 +40692,7 @@
         <v>-1.423E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="131">
         <v>7.9900000000000001E-4</v>
       </c>
@@ -40804,7 +40799,7 @@
         <v>-1.415E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="131">
         <v>6.8400000000000004E-4</v>
       </c>
@@ -40911,7 +40906,7 @@
         <v>-1.397E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="131">
         <v>8.0800000000000002E-4</v>
       </c>
@@ -41018,7 +41013,7 @@
         <v>-1.42E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="131">
         <v>6.5700000000000003E-4</v>
       </c>
@@ -41125,7 +41120,7 @@
         <v>-1.3760000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="131">
         <v>6.5499999999999998E-4</v>
       </c>
@@ -41232,7 +41227,7 @@
         <v>-1.3630000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="131">
         <v>6.5200000000000002E-4</v>
       </c>
@@ -41339,7 +41334,7 @@
         <v>-1.3389999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35">
       <c r="A64" s="131">
         <v>4.1800000000000002E-4</v>
       </c>
@@ -41446,7 +41441,7 @@
         <v>-1.3010000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35">
       <c r="A65" s="131">
         <v>3.4099999999999999E-4</v>
       </c>
@@ -41553,7 +41548,7 @@
         <v>-1.4109999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35">
       <c r="A66" s="131">
         <v>2.5799999999999998E-4</v>
       </c>
@@ -41660,7 +41655,7 @@
         <v>-1.4250000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35">
       <c r="A67" s="131">
         <v>1.1400000000000001E-4</v>
       </c>
@@ -41767,7 +41762,7 @@
         <v>-1.3159999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35">
       <c r="A68" s="131">
         <v>2.7700000000000001E-4</v>
       </c>
@@ -41874,7 +41869,7 @@
         <v>-1.444E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35">
       <c r="A69" s="131">
         <v>-2.32E-4</v>
       </c>
@@ -41981,7 +41976,7 @@
         <v>-1.4350000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35">
       <c r="A70" s="131">
         <v>-8.1000000000000004E-5</v>
       </c>
@@ -42088,7 +42083,7 @@
         <v>-1.542E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35">
       <c r="A71" s="131">
         <v>-1.35E-4</v>
       </c>
@@ -42195,7 +42190,7 @@
         <v>-1.621E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35">
       <c r="A72" s="131">
         <v>-2.3599999999999999E-4</v>
       </c>
@@ -42302,7 +42297,7 @@
         <v>-1.518E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35">
       <c r="A73" s="131">
         <v>4.3800000000000002E-4</v>
       </c>
@@ -42409,7 +42404,7 @@
         <v>-1.8439999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35">
       <c r="A74" s="131">
         <v>4.2200000000000001E-4</v>
       </c>
@@ -42516,7 +42511,7 @@
         <v>-1.7849999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35">
       <c r="A75" s="131">
         <v>3.4200000000000002E-4</v>
       </c>
@@ -42623,7 +42618,7 @@
         <v>-1.7799999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35">
       <c r="A76" s="131">
         <v>5.3499999999999999E-4</v>
       </c>
@@ -42730,7 +42725,7 @@
         <v>-2.0110000000000002E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35">
       <c r="A77" s="131">
         <v>2.23E-4</v>
       </c>
@@ -42837,7 +42832,7 @@
         <v>-1.848E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35">
       <c r="A78" s="131">
         <v>1.8599999999999999E-4</v>
       </c>
@@ -42944,7 +42939,7 @@
         <v>-2.1779999999999998E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35">
       <c r="A79" s="131">
         <v>7.3399999999999995E-4</v>
       </c>
@@ -43051,7 +43046,7 @@
         <v>-2.1280000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35">
       <c r="A80" s="131">
         <v>1.76E-4</v>
       </c>
@@ -43158,7 +43153,7 @@
         <v>-1.931E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35">
       <c r="A81" s="131">
         <v>4.9299999999999995E-4</v>
       </c>
@@ -43265,7 +43260,7 @@
         <v>-2.2799999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35">
       <c r="A82" s="131">
         <v>7.76E-4</v>
       </c>
@@ -43372,7 +43367,7 @@
         <v>-2.0509999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35">
       <c r="A83" s="131">
         <v>4.6500000000000003E-4</v>
       </c>
@@ -43479,7 +43474,7 @@
         <v>-2.0379999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35">
       <c r="A84" s="131">
         <v>7.0600000000000003E-4</v>
       </c>
@@ -43586,7 +43581,7 @@
         <v>-2.3530000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35">
       <c r="A85" s="131">
         <v>6.8400000000000004E-4</v>
       </c>
@@ -43693,7 +43688,7 @@
         <v>-1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35">
       <c r="A86" s="131">
         <v>1.8599999999999999E-4</v>
       </c>
@@ -43800,7 +43795,7 @@
         <v>-2.2950000000000002E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35">
       <c r="A87" s="131">
         <v>-2.9399999999999999E-4</v>
       </c>
